--- a/Resource/TestData/WKD_DATAPOOL.xlsx
+++ b/Resource/TestData/WKD_DATAPOOL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" tabRatio="803"/>
+    <workbookView windowWidth="20490" windowHeight="7815" tabRatio="803" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="PROFILE_ADDRESS" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="182">
   <si>
     <t>DUPLICATE_ENTRY</t>
   </si>
@@ -166,7 +166,7 @@
     <t>Afar</t>
   </si>
   <si>
-    <t>Awsi Rasu/zone1</t>
+    <t>Awsi/Zone 1</t>
   </si>
   <si>
     <t>ET8522</t>
@@ -181,6 +181,9 @@
     <t>Edit Service Address</t>
   </si>
   <si>
+    <t xml:space="preserve">Addis Ababa </t>
+  </si>
+  <si>
     <t>CONTACT</t>
   </si>
   <si>
@@ -505,10 +508,16 @@
     <t>TICKET_ID</t>
   </si>
   <si>
+    <t>PRIORITY</t>
+  </si>
+  <si>
     <t>FilterTicket</t>
   </si>
   <si>
     <t>Open</t>
+  </si>
+  <si>
+    <t>Medium</t>
   </si>
   <si>
     <t>In-Progress</t>
@@ -570,12 +579,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="181" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="179" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="58">
     <font>
@@ -838,15 +847,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -859,15 +869,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -881,18 +893,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -901,38 +921,6 @@
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -952,7 +940,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -966,17 +969,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1069,7 +1078,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,25 +1204,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,13 +1222,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1129,115 +1246,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,39 +1275,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1316,11 +1292,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1336,6 +1325,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1358,160 +1367,160 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="36" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -1531,10 +1540,10 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1545,7 +1554,7 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1562,9 +1571,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1577,18 +1583,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1598,29 +1605,29 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="181" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1630,7 +1637,7 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -1649,14 +1656,14 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="19" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="19" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -1689,39 +1696,30 @@
     <xf numFmtId="0" fontId="26" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="19" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="19" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="179" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -1761,9 +1759,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -1790,10 +1785,6 @@
     <xf numFmtId="0" fontId="37" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1803,7 +1794,6 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1860,7 +1850,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
@@ -1919,18 +1909,8 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
@@ -2209,273 +2189,273 @@
   </sheetPr>
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="17.7142857142857" style="95" customWidth="1"/>
-    <col min="2" max="3" width="12.6285714285714" style="15"/>
-    <col min="4" max="4" width="26.247619047619" style="15" customWidth="1"/>
-    <col min="5" max="5" width="12.6285714285714" style="15"/>
-    <col min="6" max="6" width="19.247619047619" style="15" customWidth="1"/>
-    <col min="7" max="11" width="12.6285714285714" style="15"/>
-    <col min="12" max="12" width="18.4285714285714" style="15" customWidth="1"/>
-    <col min="13" max="16384" width="12.6285714285714" style="15"/>
+    <col min="1" max="1" width="17.7142857142857" style="50" customWidth="1"/>
+    <col min="2" max="3" width="12.6285714285714" style="1"/>
+    <col min="4" max="4" width="26.247619047619" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6285714285714" style="1"/>
+    <col min="6" max="6" width="19.247619047619" style="1" customWidth="1"/>
+    <col min="7" max="11" width="12.6285714285714" style="1"/>
+    <col min="12" max="12" width="18.4285714285714" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="12.6285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:17">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="98" t="s">
+      <c r="F1" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="99" t="s">
+      <c r="G1" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="98" t="s">
+      <c r="I1" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="107" t="s">
+      <c r="J1" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="107" t="s">
+      <c r="K1" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="107" t="s">
+      <c r="L1" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="107" t="s">
+      <c r="M1" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="107" t="s">
+      <c r="N1" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="107" t="s">
+      <c r="O1" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="107" t="s">
+      <c r="P1" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="107" t="s">
+      <c r="Q1" s="100" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:17">
-      <c r="A2" s="100" t="str">
+      <c r="A2" s="54" t="str">
         <f t="shared" ref="A2:A7" si="0">_xlfn.CONCAT(B2,C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="102" t="s">
+      <c r="D2" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="103">
+      <c r="E2" s="96">
         <v>21243</v>
       </c>
-      <c r="F2" s="104" t="s">
+      <c r="F2" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="105" t="s">
+      <c r="G2" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="105" t="s">
+      <c r="H2" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="108" t="s">
+      <c r="I2" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="109" t="s">
+      <c r="J2" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="109" t="s">
+      <c r="K2" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="109" t="s">
+      <c r="L2" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="110">
+      <c r="M2" s="103">
         <v>33333</v>
       </c>
-      <c r="N2" s="111">
+      <c r="N2" s="104">
         <v>33333</v>
       </c>
-      <c r="O2" s="111">
+      <c r="O2" s="104">
         <v>33.3</v>
       </c>
-      <c r="P2" s="111">
+      <c r="P2" s="104">
         <v>33.3</v>
       </c>
-      <c r="Q2" s="114" t="s">
+      <c r="Q2" s="107" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:17">
-      <c r="A3" s="100" t="str">
+      <c r="A3" s="54" t="str">
         <f t="shared" si="0"/>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="102" t="s">
+      <c r="D3" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="103">
+      <c r="E3" s="96">
         <v>21243</v>
       </c>
-      <c r="F3" s="104" t="s">
+      <c r="F3" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="105" t="s">
+      <c r="G3" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="105" t="s">
+      <c r="H3" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="108" t="s">
+      <c r="I3" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="109" t="s">
+      <c r="J3" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="109" t="s">
+      <c r="K3" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="109" t="s">
+      <c r="L3" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="110">
+      <c r="M3" s="103">
         <v>4444</v>
       </c>
-      <c r="N3" s="112">
+      <c r="N3" s="105">
         <v>4444</v>
       </c>
-      <c r="O3" s="112">
+      <c r="O3" s="105">
         <v>44.4</v>
       </c>
-      <c r="P3" s="112">
+      <c r="P3" s="105">
         <v>44.4</v>
       </c>
-      <c r="Q3" s="115" t="s">
+      <c r="Q3" s="108" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:17">
-      <c r="A4" s="100" t="str">
+      <c r="A4" s="54" t="str">
         <f t="shared" si="0"/>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="102" t="s">
+      <c r="D4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="103">
+      <c r="E4" s="96">
         <v>21243</v>
       </c>
-      <c r="F4" s="104"/>
-      <c r="G4" s="105" t="s">
+      <c r="F4" s="97"/>
+      <c r="G4" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="105" t="s">
+      <c r="H4" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="108" t="s">
+      <c r="I4" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="109" t="s">
+      <c r="J4" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="113" t="s">
+      <c r="K4" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="109" t="s">
+      <c r="L4" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="110">
+      <c r="M4" s="103">
         <v>4444</v>
       </c>
-      <c r="N4" s="112">
+      <c r="N4" s="105">
         <v>4444</v>
       </c>
-      <c r="O4" s="112">
+      <c r="O4" s="105">
         <v>44.4</v>
       </c>
-      <c r="P4" s="112">
+      <c r="P4" s="105">
         <v>44.4</v>
       </c>
-      <c r="Q4" s="115" t="s">
+      <c r="Q4" s="108" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="86" t="str">
+      <c r="A5" s="82" t="str">
         <f t="shared" si="0"/>
         <v>TC_001TD_05</v>
       </c>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="94" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="86" t="str">
+      <c r="A6" s="82" t="str">
         <f t="shared" si="0"/>
         <v>TC_001TD_05</v>
       </c>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="101" t="s">
+      <c r="C6" s="94" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="86" t="str">
+      <c r="A7" s="82" t="str">
         <f t="shared" si="0"/>
         <v>TC_001TD_05</v>
       </c>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="101" t="s">
+      <c r="C7" s="94" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="4:4">
-      <c r="D8" s="106"/>
+      <c r="D8" s="99"/>
     </row>
   </sheetData>
   <sheetProtection password="CC65" sheet="1" selectLockedCells="1" objects="1"/>
@@ -2494,13 +2474,13 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9.14285714285714" style="1"/>
     <col min="2" max="2" width="16.4285714285714" style="1" customWidth="1"/>
@@ -2510,7 +2490,7 @@
     <col min="6" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:7">
+    <row r="1" ht="15" spans="1:8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2520,20 +2500,23 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>157</v>
+      <c r="F1" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" ht="15.75" spans="1:7">
+        <v>159</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:8">
       <c r="A2" s="1" t="str">
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
@@ -2545,16 +2528,19 @@
         <v>18</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="19">
+        <v>109</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="18">
         <v>5787</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:6">
@@ -2569,13 +2555,13 @@
         <v>28</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
@@ -2590,7 +2576,7 @@
         <v>38</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E4" s="12"/>
     </row>
@@ -2896,7 +2882,7 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="str">
-        <f t="shared" ref="A55:A86" si="2">_xlfn.CONCAT(B55:C55)</f>
+        <f t="shared" ref="A55:A100" si="2">_xlfn.CONCAT(B55:C55)</f>
         <v/>
       </c>
     </row>
@@ -3088,85 +3074,85 @@
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="str">
-        <f>_xlfn.CONCAT(B87:C87)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="str">
-        <f>_xlfn.CONCAT(B88:C88)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="str">
-        <f>_xlfn.CONCAT(B89:C89)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="str">
-        <f>_xlfn.CONCAT(B90:C90)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="str">
-        <f>_xlfn.CONCAT(B91:C91)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="str">
-        <f>_xlfn.CONCAT(B92:C92)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="str">
-        <f>_xlfn.CONCAT(B93:C93)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="str">
-        <f>_xlfn.CONCAT(B94:C94)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="str">
-        <f>_xlfn.CONCAT(B95:C95)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="str">
-        <f>_xlfn.CONCAT(B96:C96)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="str">
-        <f>_xlfn.CONCAT(B97:C97)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="str">
-        <f>_xlfn.CONCAT(B98:C98)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="str">
-        <f>_xlfn.CONCAT(B99:C99)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="str">
-        <f>_xlfn.CONCAT(B100:C100)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3216,16 +3202,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>16</v>
@@ -3243,19 +3229,19 @@
         <v>18</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:8">
@@ -3270,19 +3256,19 @@
         <v>28</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:8">
@@ -3297,19 +3283,19 @@
         <v>38</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>164</v>
-      </c>
       <c r="H4" s="13" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -3432,12 +3418,11 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:1">
       <c r="A25" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F25" s="15"/>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="str">
@@ -3933,10 +3918,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
@@ -3951,10 +3936,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E2" s="119" t="s">
-        <v>170</v>
+        <v>172</v>
+      </c>
+      <c r="E2" s="112" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
@@ -3969,7 +3954,7 @@
         <v>28</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E3" s="10"/>
     </row>
@@ -3985,7 +3970,7 @@
         <v>38</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E4" s="10"/>
     </row>
@@ -4303,7 +4288,7 @@
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="8" t="str">
-        <f t="shared" ref="A56:A87" si="2">_xlfn.CONCAT(B56:C56)</f>
+        <f t="shared" ref="A56:A100" si="2">_xlfn.CONCAT(B56:C56)</f>
         <v/>
       </c>
     </row>
@@ -4495,79 +4480,79 @@
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="8" t="str">
-        <f>_xlfn.CONCAT(B88:C88)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="8" t="str">
-        <f>_xlfn.CONCAT(B89:C89)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="8" t="str">
-        <f>_xlfn.CONCAT(B90:C90)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="8" t="str">
-        <f>_xlfn.CONCAT(B91:C91)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="8" t="str">
-        <f>_xlfn.CONCAT(B92:C92)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="8" t="str">
-        <f>_xlfn.CONCAT(B93:C93)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="8" t="str">
-        <f>_xlfn.CONCAT(B94:C94)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="8" t="str">
-        <f>_xlfn.CONCAT(B95:C95)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="8" t="str">
-        <f>_xlfn.CONCAT(B96:C96)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="8" t="str">
-        <f>_xlfn.CONCAT(B97:C97)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="8" t="str">
-        <f>_xlfn.CONCAT(B98:C98)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="8" t="str">
-        <f>_xlfn.CONCAT(B99:C99)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="8" t="str">
-        <f>_xlfn.CONCAT(B100:C100)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4577,8 +4562,8 @@
     <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A$1:A$1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A100">
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
@@ -4623,13 +4608,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
@@ -4644,16 +4629,16 @@
         <v>18</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:7">
@@ -4669,13 +4654,13 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:7">
@@ -4691,13 +4676,13 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -5074,7 +5059,7 @@
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="str">
-        <f t="shared" ref="A67:A98" si="2">_xlfn.CONCAT(B67,C67)</f>
+        <f t="shared" ref="A67:A100" si="2">_xlfn.CONCAT(B67,C67)</f>
         <v/>
       </c>
     </row>
@@ -5266,13 +5251,13 @@
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="str">
-        <f>_xlfn.CONCAT(B99,C99)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="str">
-        <f>_xlfn.CONCAT(B100,C100)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5280,11 +5265,11 @@
   <sheetProtection password="CC65" sheet="1" objects="1"/>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A$1:A$1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5299,276 +5284,276 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.7142857142857" style="84" customWidth="1"/>
-    <col min="2" max="3" width="12.6285714285714" style="15"/>
-    <col min="4" max="4" width="20.8761904761905" style="15" customWidth="1"/>
-    <col min="5" max="5" width="12.6285714285714" style="15"/>
-    <col min="6" max="6" width="18.4285714285714" style="15" customWidth="1"/>
-    <col min="7" max="16384" width="12.6285714285714" style="15"/>
+    <col min="1" max="1" width="18.7142857142857" style="81" customWidth="1"/>
+    <col min="2" max="3" width="12.6285714285714" style="1"/>
+    <col min="4" max="4" width="20.8761904761905" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6285714285714" style="1"/>
+    <col min="6" max="6" width="18.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="12.6285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:17">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="76" t="s">
+      <c r="J1" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="76" t="s">
+      <c r="K1" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="76" t="s">
+      <c r="L1" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="76" t="s">
+      <c r="M1" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="76" t="s">
+      <c r="N1" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="76" t="s">
+      <c r="O1" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="76" t="s">
+      <c r="P1" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="76" t="s">
+      <c r="Q1" s="73" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:17">
-      <c r="A2" s="86" t="str">
+      <c r="A2" s="82" t="str">
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="89" t="s">
+      <c r="E2" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="90" t="s">
+      <c r="F2" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="74" t="s">
+      <c r="G2" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="92" t="s">
+      <c r="I2" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="83" t="s">
+      <c r="J2" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="83" t="s">
+      <c r="K2" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="83" t="s">
+      <c r="L2" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="81">
+      <c r="M2" s="78">
         <v>33333</v>
       </c>
-      <c r="N2" s="93">
+      <c r="N2" s="89">
         <v>33333</v>
       </c>
-      <c r="O2" s="93">
+      <c r="O2" s="89">
         <v>33.3</v>
       </c>
-      <c r="P2" s="93">
+      <c r="P2" s="89">
         <v>33.3</v>
       </c>
-      <c r="Q2" s="94" t="s">
+      <c r="Q2" s="90" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:17">
-      <c r="A3" s="84" t="str">
+      <c r="A3" s="81" t="str">
         <f t="shared" ref="A3:A12" si="0">_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="88" t="s">
+      <c r="D3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="89" t="s">
+      <c r="E3" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="90" t="s">
+      <c r="F3" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="91" t="s">
+      <c r="G3" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="91" t="s">
+      <c r="H3" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="92" t="s">
+      <c r="I3" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="83" t="s">
+      <c r="J3" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="83" t="s">
+      <c r="K3" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="83" t="s">
+      <c r="L3" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="81">
+      <c r="M3" s="78">
         <v>4444</v>
       </c>
-      <c r="N3" s="81">
+      <c r="N3" s="78">
         <v>4444</v>
       </c>
-      <c r="O3" s="81">
+      <c r="O3" s="78">
         <v>44.4</v>
       </c>
-      <c r="P3" s="81">
+      <c r="P3" s="78">
         <v>44.4</v>
       </c>
-      <c r="Q3" s="83" t="s">
+      <c r="Q3" s="80" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:17">
-      <c r="A4" s="84" t="str">
+      <c r="A4" s="81" t="str">
         <f t="shared" si="0"/>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="89" t="s">
+      <c r="E4" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="90"/>
-      <c r="G4" s="91" t="s">
+      <c r="F4" s="86"/>
+      <c r="G4" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="91" t="s">
+      <c r="H4" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="92" t="s">
+      <c r="I4" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="83" t="s">
+      <c r="J4" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="83" t="s">
+      <c r="L4" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="81">
+      <c r="M4" s="78">
         <v>4444</v>
       </c>
-      <c r="N4" s="81">
+      <c r="N4" s="78">
         <v>4444</v>
       </c>
-      <c r="O4" s="81">
+      <c r="O4" s="78">
         <v>44.4</v>
       </c>
-      <c r="P4" s="81">
+      <c r="P4" s="78">
         <v>44.4</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="80" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:1">
-      <c r="A5" s="84" t="str">
+      <c r="A5" s="81" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
-      <c r="A6" s="84" t="str">
+      <c r="A6" s="81" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
-      <c r="A7" s="84" t="str">
+      <c r="A7" s="81" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="84" t="str">
+      <c r="A8" s="81" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:1">
-      <c r="A9" s="84" t="str">
+      <c r="A9" s="81" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:1">
-      <c r="A10" s="84" t="str">
+      <c r="A10" s="81" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:1">
-      <c r="A11" s="84" t="str">
+      <c r="A11" s="81" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:1">
-      <c r="A12" s="84" t="str">
+      <c r="A12" s="81" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5601,69 +5586,70 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20.2857142857143" style="64" customWidth="1"/>
-    <col min="2" max="3" width="12.6285714285714" style="15"/>
-    <col min="4" max="4" width="18.8761904761905" style="15" customWidth="1"/>
-    <col min="5" max="5" width="14" style="65"/>
-    <col min="6" max="6" width="21.2857142857143" style="15" customWidth="1"/>
-    <col min="7" max="16384" width="12.6285714285714" style="15"/>
+    <col min="2" max="3" width="12.6285714285714" style="1"/>
+    <col min="4" max="4" width="18.8761904761905" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="6"/>
+    <col min="6" max="6" width="21.2857142857143" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.2857142857143" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="12.6285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:17">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="69" t="s">
+      <c r="H1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="76" t="s">
+      <c r="J1" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="76" t="s">
+      <c r="K1" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="76" t="s">
+      <c r="L1" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="76" t="s">
+      <c r="M1" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="76" t="s">
+      <c r="N1" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="76" t="s">
+      <c r="O1" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="76" t="s">
+      <c r="P1" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="76" t="s">
+      <c r="Q1" s="73" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5672,52 +5658,52 @@
         <f>_xlfn.CONCAT(B2,C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="72">
+      <c r="E2" s="69">
         <v>251311000009</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="74" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="77" t="s">
+      <c r="G2" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="78" t="s">
+      <c r="J2" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="78" t="s">
+      <c r="K2" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="78" t="s">
+      <c r="L2" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="79">
+      <c r="M2" s="76">
         <v>33333</v>
       </c>
-      <c r="N2" s="80">
+      <c r="N2" s="77">
         <v>33333</v>
       </c>
-      <c r="O2" s="80">
+      <c r="O2" s="77">
         <v>33.3</v>
       </c>
-      <c r="P2" s="80">
+      <c r="P2" s="77">
         <v>33.3</v>
       </c>
-      <c r="Q2" s="82" t="s">
+      <c r="Q2" s="79" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5726,52 +5712,52 @@
         <f t="shared" ref="A3:A12" si="0">_xlfn.CONCAT(B3,C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="72">
+      <c r="E3" s="69">
         <v>251311000010</v>
       </c>
-      <c r="F3" s="73" t="s">
+      <c r="F3" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="74" t="s">
+      <c r="G3" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="74" t="s">
+      <c r="H3" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="77" t="s">
+      <c r="I3" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="78" t="s">
+      <c r="J3" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="78" t="s">
+      <c r="K3" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="78" t="s">
+      <c r="L3" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="79">
+      <c r="M3" s="76">
         <v>4444</v>
       </c>
-      <c r="N3" s="81">
+      <c r="N3" s="78">
         <v>4444</v>
       </c>
-      <c r="O3" s="81">
+      <c r="O3" s="78">
         <v>44.4</v>
       </c>
-      <c r="P3" s="81">
+      <c r="P3" s="78">
         <v>44.4</v>
       </c>
-      <c r="Q3" s="83" t="s">
+      <c r="Q3" s="80" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5780,50 +5766,50 @@
         <f t="shared" si="0"/>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="72">
+      <c r="E4" s="69">
         <v>251311000011</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74" t="s">
+      <c r="F4" s="70"/>
+      <c r="G4" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="74" t="s">
+      <c r="H4" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="77" t="s">
+      <c r="I4" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="78" t="s">
+      <c r="J4" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="78" t="s">
+      <c r="L4" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="79">
+      <c r="M4" s="76">
         <v>4444</v>
       </c>
-      <c r="N4" s="81">
+      <c r="N4" s="78">
         <v>4444</v>
       </c>
-      <c r="O4" s="81">
+      <c r="O4" s="78">
         <v>44.4</v>
       </c>
-      <c r="P4" s="81">
+      <c r="P4" s="78">
         <v>44.4</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="80" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5832,428 +5818,428 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="83"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="80"/>
     </row>
     <row r="6" customHeight="1" spans="1:17">
       <c r="A6" s="64" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="83"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="80"/>
     </row>
     <row r="7" customHeight="1" spans="1:17">
       <c r="A7" s="64" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="83"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="80"/>
     </row>
     <row r="8" customHeight="1" spans="1:17">
       <c r="A8" s="64" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="83"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="80"/>
     </row>
     <row r="9" customHeight="1" spans="1:17">
       <c r="A9" s="64" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="83"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="80"/>
     </row>
     <row r="10" customHeight="1" spans="1:17">
       <c r="A10" s="64" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="83"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="80"/>
     </row>
     <row r="11" customHeight="1" spans="1:17">
       <c r="A11" s="64" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="83"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="80"/>
     </row>
     <row r="12" customHeight="1" spans="1:17">
       <c r="A12" s="64" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="81"/>
-      <c r="Q12" s="83"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="80"/>
     </row>
     <row r="13" customHeight="1" spans="2:17">
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="81"/>
-      <c r="P13" s="81"/>
-      <c r="Q13" s="83"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="80"/>
     </row>
     <row r="14" customHeight="1" spans="2:17">
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="83"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="80"/>
     </row>
     <row r="15" customHeight="1" spans="2:17">
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="81"/>
-      <c r="P15" s="81"/>
-      <c r="Q15" s="83"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="80"/>
     </row>
     <row r="16" customHeight="1" spans="2:17">
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="81"/>
-      <c r="P16" s="81"/>
-      <c r="Q16" s="83"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="80"/>
     </row>
     <row r="17" customHeight="1" spans="2:17">
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="83"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="80"/>
     </row>
     <row r="18" customHeight="1" spans="2:17">
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="83"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="80"/>
     </row>
     <row r="19" customHeight="1" spans="2:17">
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="83"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="80"/>
     </row>
     <row r="20" customHeight="1" spans="2:17">
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="81"/>
-      <c r="O20" s="81"/>
-      <c r="P20" s="81"/>
-      <c r="Q20" s="83"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="80"/>
     </row>
     <row r="21" customHeight="1" spans="2:17">
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="81"/>
-      <c r="O21" s="81"/>
-      <c r="P21" s="81"/>
-      <c r="Q21" s="83"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="80"/>
     </row>
     <row r="22" customHeight="1" spans="2:17">
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="81"/>
-      <c r="O22" s="81"/>
-      <c r="P22" s="81"/>
-      <c r="Q22" s="83"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="78"/>
+      <c r="P22" s="78"/>
+      <c r="Q22" s="80"/>
     </row>
     <row r="23" customHeight="1" spans="2:17">
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="81"/>
-      <c r="P23" s="81"/>
-      <c r="Q23" s="83"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="80"/>
     </row>
     <row r="24" customHeight="1" spans="2:17">
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="81"/>
-      <c r="P24" s="81"/>
-      <c r="Q24" s="83"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="78"/>
+      <c r="Q24" s="80"/>
     </row>
     <row r="25" customHeight="1" spans="2:17">
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="81"/>
-      <c r="O25" s="81"/>
-      <c r="P25" s="81"/>
-      <c r="Q25" s="83"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="78"/>
+      <c r="O25" s="78"/>
+      <c r="P25" s="78"/>
+      <c r="Q25" s="80"/>
     </row>
     <row r="26" customHeight="1" spans="2:17">
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="81"/>
-      <c r="O26" s="81"/>
-      <c r="P26" s="81"/>
-      <c r="Q26" s="83"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="80"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
@@ -6301,13 +6287,13 @@
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="51" t="s">
@@ -6317,16 +6303,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H1" s="53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I1" s="60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J1" s="61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
@@ -6341,7 +6327,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" s="56">
         <v>21243</v>
@@ -6349,11 +6335,11 @@
       <c r="F2" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="116" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="116" t="s">
+      <c r="G2" s="109" t="s">
         <v>57</v>
+      </c>
+      <c r="H2" s="109" t="s">
+        <v>58</v>
       </c>
       <c r="I2" s="59"/>
       <c r="J2" s="62"/>
@@ -6370,7 +6356,7 @@
         <v>28</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E3" s="56">
         <v>21244</v>
@@ -6378,11 +6364,11 @@
       <c r="F3" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="116" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="116" t="s">
+      <c r="G3" s="109" t="s">
         <v>59</v>
+      </c>
+      <c r="H3" s="109" t="s">
+        <v>60</v>
       </c>
       <c r="I3" s="59"/>
       <c r="J3" s="63"/>
@@ -6399,17 +6385,17 @@
         <v>38</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E4" s="56">
         <v>212435</v>
       </c>
       <c r="F4" s="57"/>
-      <c r="G4" s="116" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="116" t="s">
+      <c r="G4" s="109" t="s">
         <v>61</v>
+      </c>
+      <c r="H4" s="109" t="s">
+        <v>62</v>
       </c>
       <c r="I4" s="59"/>
       <c r="J4" s="63"/>
@@ -6426,7 +6412,7 @@
         <v>38</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5" s="56">
         <v>21246</v>
@@ -6434,11 +6420,11 @@
       <c r="F5" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="116" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="116" t="s">
+      <c r="G5" s="109" t="s">
         <v>63</v>
+      </c>
+      <c r="H5" s="109" t="s">
+        <v>64</v>
       </c>
       <c r="I5" s="59"/>
       <c r="J5" s="63"/>
@@ -6449,13 +6435,13 @@
         <v>TC_002TD_01</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C6" s="39" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E6" s="56">
         <v>21243</v>
@@ -6474,13 +6460,13 @@
         <v>TC_003TD_02</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C7" s="39" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E7" s="59"/>
       <c r="F7" s="58"/>
@@ -6687,62 +6673,62 @@
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="16" t="s">
+      <c r="F1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>70</v>
       </c>
+      <c r="I1" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="J1" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="L1" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="M1" s="15" t="s">
         <v>75</v>
       </c>
+      <c r="N1" s="15" t="s">
+        <v>76</v>
+      </c>
       <c r="O1" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="P1" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="P1" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="Q1" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="R1" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="S1" s="15" t="s">
         <v>81</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:20">
@@ -6757,55 +6743,55 @@
         <v>18</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" s="44" t="s">
         <v>44</v>
       </c>
       <c r="F2" s="44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G2" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="117" t="s">
-        <v>58</v>
+      <c r="H2" s="110" t="s">
+        <v>59</v>
       </c>
       <c r="I2" s="48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J2" s="48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K2" s="48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L2" s="48" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M2" s="43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N2" s="48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O2" s="49">
         <v>1.1312423423434e+17</v>
       </c>
       <c r="P2" s="43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q2" s="43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R2" s="43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S2" s="43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T2" s="43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:20">
@@ -6820,53 +6806,53 @@
         <v>28</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E3" s="44" t="s">
         <v>44</v>
       </c>
       <c r="F3" s="44" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G3" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="117" t="s">
-        <v>58</v>
+        <v>93</v>
+      </c>
+      <c r="H3" s="110" t="s">
+        <v>59</v>
       </c>
       <c r="I3" s="48" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J3" s="48" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K3" s="48" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L3" s="48" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M3" s="43"/>
       <c r="N3" s="48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O3" s="49">
         <v>1.1312423423434e+17</v>
       </c>
       <c r="P3" s="43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q3" s="43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R3" s="43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S3" s="43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T3" s="43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:20">
@@ -6881,55 +6867,55 @@
         <v>38</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E4" s="44" t="s">
         <v>44</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G4" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="117" t="s">
-        <v>58</v>
+      <c r="H4" s="110" t="s">
+        <v>59</v>
       </c>
       <c r="I4" s="48" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J4" s="48" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K4" s="48" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L4" s="48" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M4" s="43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N4" s="48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O4" s="49">
         <v>1.1312423423434e+17</v>
       </c>
       <c r="P4" s="43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q4" s="43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R4" s="43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S4" s="43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T4" s="43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -7232,7 +7218,7 @@
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A$1:A$1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
     <cfRule type="duplicateValues" dxfId="1" priority="3"/>
@@ -7273,20 +7259,20 @@
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>98</v>
+      <c r="F1" s="15" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
@@ -7301,13 +7287,13 @@
         <v>18</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E2" s="41">
         <v>251311000009</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
@@ -7322,13 +7308,13 @@
         <v>28</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E3" s="41">
         <v>251311000010</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
@@ -7343,13 +7329,13 @@
         <v>38</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E4" s="41">
         <v>251311000011</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
@@ -7364,13 +7350,13 @@
         <v>38</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E5" s="41">
         <v>251311000012</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
@@ -7790,13 +7776,13 @@
         <v>16</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:9">
@@ -7811,22 +7797,22 @@
         <v>18</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" s="118" t="s">
         <v>108</v>
       </c>
+      <c r="E2" s="111" t="s">
+        <v>109</v>
+      </c>
       <c r="F2" s="36" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:9">
@@ -7841,20 +7827,20 @@
         <v>28</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="118" t="s">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="E3" s="111" t="s">
+        <v>113</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H3" s="37"/>
       <c r="I3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:8">
@@ -7869,22 +7855,22 @@
         <v>38</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" s="118" t="s">
-        <v>116</v>
+        <v>108</v>
+      </c>
+      <c r="E4" s="111" t="s">
+        <v>117</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H4" s="37"/>
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>17</v>
@@ -7893,22 +7879,22 @@
         <v>38</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" s="118" t="s">
-        <v>120</v>
+        <v>108</v>
+      </c>
+      <c r="E5" s="111" t="s">
+        <v>121</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:8">
@@ -7917,7 +7903,7 @@
         <v/>
       </c>
       <c r="H6" s="37" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
@@ -8022,59 +8008,59 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="T1" s="24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="U1" s="25"/>
       <c r="V1" s="24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:19">
@@ -8089,52 +8075,52 @@
         <v>18</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>141</v>
-      </c>
       <c r="P2" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="R2" s="26">
         <v>7877997701</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:19">
@@ -8819,7 +8805,7 @@
         <v>49</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:6">
@@ -8834,13 +8820,13 @@
         <v>18</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E2" s="22">
         <v>251311000009</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:6">
@@ -8849,19 +8835,19 @@
         <v>TC_002TD_02</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E3" s="22">
         <v>251311000009</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -9250,7 +9236,7 @@
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="str">
-        <f t="shared" ref="A68:A99" si="2">_xlfn.CONCAT(B68:C68)</f>
+        <f t="shared" ref="A68:A100" si="2">_xlfn.CONCAT(B68:C68)</f>
         <v/>
       </c>
     </row>
@@ -9442,7 +9428,7 @@
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="str">
-        <f>_xlfn.CONCAT(B100:C100)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>

--- a/Resource/TestData/WKD_DATAPOOL.xlsx
+++ b/Resource/TestData/WKD_DATAPOOL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" tabRatio="803" firstSheet="5" activeTab="9"/>
+    <workbookView windowWidth="20490" windowHeight="7815" tabRatio="803" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="PROFILE_ADDRESS" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="205">
   <si>
     <t>DUPLICATE_ENTRY</t>
   </si>
@@ -91,15 +91,408 @@
     <t>email@gmail.com</t>
   </si>
   <si>
-    <t>Afar Region</t>
-  </si>
-  <si>
-    <t>Awsi Rasu</t>
+    <t>Afar</t>
+  </si>
+  <si>
+    <t>Awsi/Zone 1</t>
   </si>
   <si>
     <t>Woreda1</t>
   </si>
   <si>
+    <t>Kebele11111</t>
+  </si>
+  <si>
+    <t>Houseno11111</t>
+  </si>
+  <si>
+    <t>1000ADDISABA10</t>
+  </si>
+  <si>
+    <t>Edit11</t>
+  </si>
+  <si>
+    <t>TD_02</t>
+  </si>
+  <si>
+    <t>Edit Permanent Profile Address</t>
+  </si>
+  <si>
+    <t>email44@gmail.com</t>
+  </si>
+  <si>
+    <t>Woreda2</t>
+  </si>
+  <si>
+    <t>Kebele12222</t>
+  </si>
+  <si>
+    <t>Houseno2222</t>
+  </si>
+  <si>
+    <t>20000STREET</t>
+  </si>
+  <si>
+    <t>Edit22</t>
+  </si>
+  <si>
+    <t>TD_03</t>
+  </si>
+  <si>
+    <t>Edit Company Profile Address</t>
+  </si>
+  <si>
+    <t>Addis Ababa</t>
+  </si>
+  <si>
+    <t>Addis Ketema</t>
+  </si>
+  <si>
+    <t>Kebele114444</t>
+  </si>
+  <si>
+    <t>BLANK</t>
+  </si>
+  <si>
+    <t>30000STREET</t>
+  </si>
+  <si>
+    <t>Edit44</t>
+  </si>
+  <si>
+    <t>TD_05</t>
+  </si>
+  <si>
+    <t>ACCOUNT_ID</t>
+  </si>
+  <si>
+    <t>Edit Account Address</t>
+  </si>
+  <si>
+    <t>ET8521</t>
+  </si>
+  <si>
+    <t>ET8522</t>
+  </si>
+  <si>
+    <t>ET8523</t>
+  </si>
+  <si>
+    <t>SERVICE_ID</t>
+  </si>
+  <si>
+    <t>Edit Service Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Addis Ababa </t>
+  </si>
+  <si>
+    <t>CONTACT</t>
+  </si>
+  <si>
+    <t>ALTERNATE CONTACT</t>
+  </si>
+  <si>
+    <t>DOCUMENT_ID</t>
+  </si>
+  <si>
+    <t>ID_NUMBER</t>
+  </si>
+  <si>
+    <t>Edit Profile Details</t>
+  </si>
+  <si>
+    <t>918712341100</t>
+  </si>
+  <si>
+    <t>918711341100</t>
+  </si>
+  <si>
+    <t>918712341200</t>
+  </si>
+  <si>
+    <t>918711341200</t>
+  </si>
+  <si>
+    <t>918712341300</t>
+  </si>
+  <si>
+    <t>918711341003</t>
+  </si>
+  <si>
+    <t>918712341400</t>
+  </si>
+  <si>
+    <t>918711340014</t>
+  </si>
+  <si>
+    <t>TC_002</t>
+  </si>
+  <si>
+    <t>View Doc</t>
+  </si>
+  <si>
+    <t>TC_003</t>
+  </si>
+  <si>
+    <t>View Identification</t>
+  </si>
+  <si>
+    <t>ACCOUNT_NAME</t>
+  </si>
+  <si>
+    <t>CONTACT_NO</t>
+  </si>
+  <si>
+    <t>LANGUAGE</t>
+  </si>
+  <si>
+    <t>KEY_ACC_MANAGER</t>
+  </si>
+  <si>
+    <t>BILL_MEDIUM</t>
+  </si>
+  <si>
+    <t>BANK_NAME</t>
+  </si>
+  <si>
+    <t>BRANCH_CODE</t>
+  </si>
+  <si>
+    <t>BRANCH_ACCOUNT_TYPE</t>
+  </si>
+  <si>
+    <t>BRANCH_ACCOUNT_NO</t>
+  </si>
+  <si>
+    <t>ITEMIZED_BILL_STATEMENT</t>
+  </si>
+  <si>
+    <t>EMAIL_NOTIFICATION</t>
+  </si>
+  <si>
+    <t>TAX_ACCEPTABLE</t>
+  </si>
+  <si>
+    <t>EXCEL_INVOICE</t>
+  </si>
+  <si>
+    <t>DIRECT_DEBT</t>
+  </si>
+  <si>
+    <t>Edit Account Details</t>
+  </si>
+  <si>
+    <t>ACNAME1</t>
+  </si>
+  <si>
+    <t>Amharic</t>
+  </si>
+  <si>
+    <t>slm_impl</t>
+  </si>
+  <si>
+    <t>Postal</t>
+  </si>
+  <si>
+    <t>COMMERCIAL BANK OF ETHOPIA</t>
+  </si>
+  <si>
+    <t>South branch</t>
+  </si>
+  <si>
+    <t>CURRENT</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>ACNAME2</t>
+  </si>
+  <si>
+    <t>email2@gmail.com</t>
+  </si>
+  <si>
+    <t>Somali</t>
+  </si>
+  <si>
+    <t>impl_slm</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>ACNAME3</t>
+  </si>
+  <si>
+    <t>NATIONAL BANK OF ETHOPIA</t>
+  </si>
+  <si>
+    <t>SERVICE_NAME</t>
+  </si>
+  <si>
+    <t>Edit  Service</t>
+  </si>
+  <si>
+    <t>SERVICE 1</t>
+  </si>
+  <si>
+    <t>SERVICE 2</t>
+  </si>
+  <si>
+    <t>SERVICE 3</t>
+  </si>
+  <si>
+    <t>SERVICE 4</t>
+  </si>
+  <si>
+    <t>REASON</t>
+  </si>
+  <si>
+    <t>PAYMENT</t>
+  </si>
+  <si>
+    <t>WAVEOFF</t>
+  </si>
+  <si>
+    <t>Change SIM</t>
+  </si>
+  <si>
+    <t>251311000009</t>
+  </si>
+  <si>
+    <t>Comment 1</t>
+  </si>
+  <si>
+    <t>Simcard Damage</t>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>251311000010</t>
+  </si>
+  <si>
+    <t>Comment 2</t>
+  </si>
+  <si>
+    <t>Simcard Blocked</t>
+  </si>
+  <si>
+    <t>251311000011</t>
+  </si>
+  <si>
+    <t>Comment 3</t>
+  </si>
+  <si>
+    <t>Broken SIM No Coverage</t>
+  </si>
+  <si>
+    <t>kkk</t>
+  </si>
+  <si>
+    <t>251311000012</t>
+  </si>
+  <si>
+    <t>Comment 4</t>
+  </si>
+  <si>
+    <t>Upfront</t>
+  </si>
+  <si>
+    <t>ServiceID</t>
+  </si>
+  <si>
+    <t>Product_Type</t>
+  </si>
+  <si>
+    <t>Case_Type</t>
+  </si>
+  <si>
+    <t>Case_Category</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Assigne</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Caused_Code</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>Case_Nature</t>
+  </si>
+  <si>
+    <t>Case_Sub_Nature</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Contact_Number</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>NOTIFICATION PREFERENCE</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Mobile Activation</t>
+  </si>
+  <si>
+    <t>Activation/Deactivation</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Safaricom CM Wakanda Team</t>
+  </si>
+  <si>
+    <t>cmteam123</t>
+  </si>
+  <si>
+    <t>Mobile Actiation</t>
+  </si>
+  <si>
+    <t>Mobile-Activation</t>
+  </si>
+  <si>
+    <t>Latest 09/06/22</t>
+  </si>
+  <si>
+    <t>Mobile Activation For User</t>
+  </si>
+  <si>
+    <t>Service301</t>
+  </si>
+  <si>
+    <t>Testing@gmail.com</t>
+  </si>
+  <si>
+    <t>Mobile Activation required</t>
+  </si>
+  <si>
     <t>Kebele113333</t>
   </si>
   <si>
@@ -109,28 +502,34 @@
     <t>3000ADDISABA10</t>
   </si>
   <si>
-    <t>Edit33</t>
-  </si>
-  <si>
-    <t>TD_02</t>
-  </si>
-  <si>
-    <t>Edit Permanent Profile Address</t>
-  </si>
-  <si>
-    <t>email44@gmail.com</t>
-  </si>
-  <si>
-    <t>Addis Ababa</t>
-  </si>
-  <si>
-    <t>Addis Ketema</t>
-  </si>
-  <si>
-    <t>Woreda2</t>
-  </si>
-  <si>
-    <t>Kebele114444</t>
+    <t>251789000027</t>
+  </si>
+  <si>
+    <t>Latest 14/06/22</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>IMPL_CM_Team</t>
+  </si>
+  <si>
+    <t>user-latest-18</t>
+  </si>
+  <si>
+    <t>SMS</t>
+  </si>
+  <si>
+    <t>GSM Service</t>
+  </si>
+  <si>
+    <t>General enquiry</t>
+  </si>
+  <si>
+    <t>Amhara</t>
+  </si>
+  <si>
+    <t>Agew Awi</t>
   </si>
   <si>
     <t>Houseno4444</t>
@@ -139,355 +538,28 @@
     <t>40000STREET</t>
   </si>
   <si>
-    <t>Edit44</t>
-  </si>
-  <si>
-    <t>TD_03</t>
-  </si>
-  <si>
-    <t>Edit Company Profile Address</t>
-  </si>
-  <si>
-    <t>BLANK</t>
-  </si>
-  <si>
-    <t>TD_05</t>
-  </si>
-  <si>
-    <t>ACCOUNT_ID</t>
-  </si>
-  <si>
-    <t>Edit Account Address</t>
-  </si>
-  <si>
-    <t>ET8521</t>
-  </si>
-  <si>
-    <t>Afar</t>
-  </si>
-  <si>
-    <t>Awsi/Zone 1</t>
-  </si>
-  <si>
-    <t>ET8522</t>
-  </si>
-  <si>
-    <t>ET8523</t>
-  </si>
-  <si>
-    <t>SERVICE_ID</t>
-  </si>
-  <si>
-    <t>Edit Service Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Addis Ababa </t>
-  </si>
-  <si>
-    <t>CONTACT</t>
-  </si>
-  <si>
-    <t>ALTERNATE CONTACT</t>
-  </si>
-  <si>
-    <t>DOCUMENT_ID</t>
-  </si>
-  <si>
-    <t>ID_NUMBER</t>
-  </si>
-  <si>
-    <t>Edit Profile Details</t>
-  </si>
-  <si>
-    <t>918712341100</t>
-  </si>
-  <si>
-    <t>918711341100</t>
-  </si>
-  <si>
-    <t>918712341200</t>
-  </si>
-  <si>
-    <t>918711341200</t>
-  </si>
-  <si>
-    <t>918712341300</t>
-  </si>
-  <si>
-    <t>918711341003</t>
-  </si>
-  <si>
-    <t>918712341400</t>
-  </si>
-  <si>
-    <t>918711340014</t>
-  </si>
-  <si>
-    <t>TC_002</t>
-  </si>
-  <si>
-    <t>View Doc</t>
-  </si>
-  <si>
-    <t>TC_003</t>
-  </si>
-  <si>
-    <t>View Identification</t>
-  </si>
-  <si>
-    <t>ACCOUNT_NAME</t>
-  </si>
-  <si>
-    <t>CONTACT_NO</t>
-  </si>
-  <si>
-    <t>LANGUAGE</t>
-  </si>
-  <si>
-    <t>KEY_ACC_MANAGER</t>
-  </si>
-  <si>
-    <t>BILL_MEDIUM</t>
-  </si>
-  <si>
-    <t>BANK_NAME</t>
-  </si>
-  <si>
-    <t>BRANCH_CODE</t>
-  </si>
-  <si>
-    <t>BRANCH_ACCOUNT_TYPE</t>
-  </si>
-  <si>
-    <t>BRANCH_ACCOUNT_NO</t>
-  </si>
-  <si>
-    <t>ITEMIZED_BILL_STATEMENT</t>
-  </si>
-  <si>
-    <t>EMAIL_NOTIFICATION</t>
-  </si>
-  <si>
-    <t>TAX_ACCEPTABLE</t>
-  </si>
-  <si>
-    <t>EXCEL_INVOICE</t>
-  </si>
-  <si>
-    <t>DIRECT_DEBT</t>
-  </si>
-  <si>
-    <t>Edit Account Details</t>
-  </si>
-  <si>
-    <t>ACNAME1</t>
-  </si>
-  <si>
-    <t>Amharic</t>
-  </si>
-  <si>
-    <t>slm_impl</t>
-  </si>
-  <si>
-    <t>Postal</t>
-  </si>
-  <si>
-    <t>COMMERCIAL BANK OF ETHOPIA</t>
-  </si>
-  <si>
-    <t>South branch</t>
-  </si>
-  <si>
-    <t>CURRENT</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>ACNAME2</t>
-  </si>
-  <si>
-    <t>email2@gmail.com</t>
-  </si>
-  <si>
-    <t>Somali</t>
-  </si>
-  <si>
-    <t>impl_slm</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>ACNAME3</t>
-  </si>
-  <si>
-    <t>NATIONAL BANK OF ETHOPIA</t>
-  </si>
-  <si>
-    <t>SERVICE_NAME</t>
-  </si>
-  <si>
-    <t>Edit  Service</t>
-  </si>
-  <si>
-    <t>SERVICE 1</t>
-  </si>
-  <si>
-    <t>SERVICE 2</t>
-  </si>
-  <si>
-    <t>SERVICE 3</t>
-  </si>
-  <si>
-    <t>SERVICE 4</t>
-  </si>
-  <si>
-    <t>REASON</t>
-  </si>
-  <si>
-    <t>PAYMENT</t>
-  </si>
-  <si>
-    <t>WAVEOFF</t>
-  </si>
-  <si>
-    <t>Change SIM</t>
-  </si>
-  <si>
-    <t>251311000009</t>
-  </si>
-  <si>
-    <t>Comment 1</t>
-  </si>
-  <si>
-    <t>Simcard Damage</t>
-  </si>
-  <si>
-    <t>Invoice</t>
-  </si>
-  <si>
-    <t>251311000010</t>
-  </si>
-  <si>
-    <t>Comment 2</t>
-  </si>
-  <si>
-    <t>Simcard Blocked</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>251311000011</t>
-  </si>
-  <si>
-    <t>Comment 3</t>
-  </si>
-  <si>
-    <t>Broken SIM No Coverage</t>
-  </si>
-  <si>
-    <t>kkk</t>
-  </si>
-  <si>
-    <t>251311000012</t>
-  </si>
-  <si>
-    <t>Comment 4</t>
-  </si>
-  <si>
-    <t>Upfront</t>
-  </si>
-  <si>
-    <t>ServiceID</t>
-  </si>
-  <si>
-    <t>Product_Type</t>
-  </si>
-  <si>
-    <t>Case_Type</t>
-  </si>
-  <si>
-    <t>Case_Category</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Assigne</t>
-  </si>
-  <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>Caused_Code</t>
-  </si>
-  <si>
-    <t>Channel</t>
-  </si>
-  <si>
-    <t>Case_Nature</t>
-  </si>
-  <si>
-    <t>Case_Sub_Nature</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Contact_Number</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>NOTIFICATION PREFERENCE</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>Mobile Activation</t>
-  </si>
-  <si>
-    <t>Activation/Deactivation</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Safaricom CM Wakanda Team</t>
-  </si>
-  <si>
-    <t>cmteam123</t>
-  </si>
-  <si>
-    <t>Mobile Actiation</t>
-  </si>
-  <si>
-    <t>Mobile-Activation</t>
-  </si>
-  <si>
-    <t>Latest 09/06/22</t>
-  </si>
-  <si>
-    <t>Mobile Activation For User</t>
-  </si>
-  <si>
-    <t>Service301</t>
-  </si>
-  <si>
-    <t>Testing@gmail.com</t>
-  </si>
-  <si>
-    <t>Mobile Activation required</t>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>General Inquery</t>
+  </si>
+  <si>
+    <t>Inquiry</t>
+  </si>
+  <si>
+    <t>Safaricom Case Management</t>
+  </si>
+  <si>
+    <t>john-user</t>
+  </si>
+  <si>
+    <t>Internet query</t>
+  </si>
+  <si>
+    <t>Slow Internet</t>
+  </si>
+  <si>
+    <t>Argobba</t>
   </si>
   <si>
     <t>OFFER</t>
@@ -515,9 +587,6 @@
   </si>
   <si>
     <t>Open</t>
-  </si>
-  <si>
-    <t>Medium</t>
   </si>
   <si>
     <t>In-Progress</t>
@@ -579,14 +648,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="179" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="177" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="181" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="58">
+  <fonts count="57">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -654,15 +723,33 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="12"/>
+      <color rgb="FF202124"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Courier New&quot;"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -783,24 +870,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF202124"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="&quot;Courier New&quot;"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -834,12 +903,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="&quot;Courier New&quot;"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -847,9 +910,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -869,25 +932,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -916,6 +993,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -933,37 +1034,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -971,14 +1042,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1048,6 +1111,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1060,7 +1129,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
+        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,7 +1141,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,7 +1189,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1096,13 +1273,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,127 +1291,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1314,30 +1377,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1367,6 +1406,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1375,152 +1438,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="53" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="36" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -1540,10 +1603,10 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1554,7 +1617,7 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1587,271 +1650,283 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="179" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="19" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="19" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="179" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="14" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
       <alignment vertical="top"/>
@@ -2190,12 +2265,12 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="17.7142857142857" style="50" customWidth="1"/>
+    <col min="1" max="1" width="17.7142857142857" style="60" customWidth="1"/>
     <col min="2" max="3" width="12.6285714285714" style="1"/>
     <col min="4" max="4" width="26.247619047619" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.6285714285714" style="1"/>
@@ -2206,7 +2281,7 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:17">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
@@ -2218,244 +2293,244 @@
       <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="91" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="93" t="s">
+      <c r="G1" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="92" t="s">
+      <c r="I1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="100" t="s">
+      <c r="J1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="100" t="s">
+      <c r="K1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="100" t="s">
+      <c r="L1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="100" t="s">
+      <c r="M1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="100" t="s">
+      <c r="N1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="100" t="s">
+      <c r="O1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="100" t="s">
+      <c r="P1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="100" t="s">
+      <c r="Q1" s="29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:17">
-      <c r="A2" s="54" t="str">
+      <c r="A2" s="64" t="str">
         <f t="shared" ref="A2:A7" si="0">_xlfn.CONCAT(B2,C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="96">
+      <c r="E2" s="107">
         <v>21243</v>
       </c>
-      <c r="F2" s="97" t="s">
+      <c r="F2" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="98" t="s">
+      <c r="G2" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="98" t="s">
+      <c r="H2" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="101" t="s">
+      <c r="I2" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="102" t="s">
+      <c r="J2" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="102" t="s">
+      <c r="K2" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="102" t="s">
+      <c r="L2" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="103">
-        <v>33333</v>
-      </c>
-      <c r="N2" s="104">
-        <v>33333</v>
-      </c>
-      <c r="O2" s="104">
-        <v>33.3</v>
-      </c>
-      <c r="P2" s="104">
-        <v>33.3</v>
-      </c>
-      <c r="Q2" s="107" t="s">
+      <c r="M2" s="85">
+        <v>1111</v>
+      </c>
+      <c r="N2" s="86">
+        <v>1111</v>
+      </c>
+      <c r="O2" s="86">
+        <v>11.1</v>
+      </c>
+      <c r="P2" s="86">
+        <v>11.1</v>
+      </c>
+      <c r="Q2" s="92" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:17">
-      <c r="A3" s="54" t="str">
+      <c r="A3" s="64" t="str">
         <f t="shared" si="0"/>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="95" t="s">
+      <c r="D3" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="96">
+      <c r="E3" s="107">
         <v>21243</v>
       </c>
-      <c r="F3" s="97" t="s">
+      <c r="F3" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="98" t="s">
+      <c r="G3" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="98" t="s">
+      <c r="J3" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="101" t="s">
+      <c r="K3" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="102" t="s">
+      <c r="L3" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="102" t="s">
+      <c r="M3" s="85">
+        <v>2222</v>
+      </c>
+      <c r="N3" s="87">
+        <v>2222</v>
+      </c>
+      <c r="O3" s="87">
+        <v>22.2</v>
+      </c>
+      <c r="P3" s="87">
+        <v>22.2</v>
+      </c>
+      <c r="Q3" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="102" t="s">
+    </row>
+    <row r="4" customHeight="1" spans="1:17">
+      <c r="A4" s="64" t="str">
+        <f t="shared" si="0"/>
+        <v>TC_001TD_03</v>
+      </c>
+      <c r="B4" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="103">
+      <c r="D4" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="107">
+        <v>21243</v>
+      </c>
+      <c r="F4" s="108"/>
+      <c r="G4" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="110" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="85">
         <v>4444</v>
       </c>
-      <c r="N3" s="105">
+      <c r="N4" s="87">
         <v>4444</v>
       </c>
-      <c r="O3" s="105">
+      <c r="O4" s="87">
         <v>44.4</v>
       </c>
-      <c r="P3" s="105">
+      <c r="P4" s="87">
         <v>44.4</v>
       </c>
-      <c r="Q3" s="108" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:17">
-      <c r="A4" s="54" t="str">
-        <f t="shared" si="0"/>
-        <v>TC_001TD_03</v>
-      </c>
-      <c r="B4" s="94" t="s">
+      <c r="Q4" s="93" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:3">
+      <c r="A5" s="96" t="str">
+        <f t="shared" si="0"/>
+        <v>TC_001TD_05</v>
+      </c>
+      <c r="B5" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="94" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="95" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="96">
-        <v>21243</v>
-      </c>
-      <c r="F4" s="97"/>
-      <c r="G4" s="98" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="98" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="101" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="102" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="106" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="102" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="103">
-        <v>4444</v>
-      </c>
-      <c r="N4" s="105">
-        <v>4444</v>
-      </c>
-      <c r="O4" s="105">
-        <v>44.4</v>
-      </c>
-      <c r="P4" s="105">
-        <v>44.4</v>
-      </c>
-      <c r="Q4" s="108" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="82" t="str">
+      <c r="C5" s="105" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:3">
+      <c r="A6" s="96" t="str">
         <f t="shared" si="0"/>
         <v>TC_001TD_05</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B6" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="94" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="82" t="str">
+      <c r="C6" s="105" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:3">
+      <c r="A7" s="96" t="str">
         <f t="shared" si="0"/>
         <v>TC_001TD_05</v>
       </c>
-      <c r="B6" s="94" t="s">
+      <c r="B7" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="94" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="82" t="str">
-        <f t="shared" si="0"/>
-        <v>TC_001TD_05</v>
-      </c>
-      <c r="B7" s="94" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="94" t="s">
-        <v>41</v>
+      <c r="C7" s="105" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="4:4">
-      <c r="D8" s="99"/>
+      <c r="D8" s="109"/>
     </row>
   </sheetData>
   <sheetProtection password="CC65" sheet="1" selectLockedCells="1" objects="1"/>
@@ -2476,8 +2551,8 @@
   <sheetPr/>
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -2504,16 +2579,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:8">
@@ -2528,19 +2603,19 @@
         <v>18</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="G2" s="18">
         <v>5787</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:6">
@@ -2555,13 +2630,13 @@
         <v>28</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
@@ -2573,10 +2648,10 @@
         <v>17</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="E4" s="12"/>
     </row>
@@ -3174,8 +3249,8 @@
   <sheetPr/>
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -3202,16 +3277,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>16</v>
@@ -3229,19 +3304,19 @@
         <v>18</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:8">
@@ -3256,19 +3331,19 @@
         <v>28</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:8">
@@ -3280,22 +3355,22 @@
         <v>17</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -3918,10 +3993,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
@@ -3936,10 +4011,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E2" s="112" t="s">
-        <v>173</v>
+        <v>195</v>
+      </c>
+      <c r="E2" s="116" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
@@ -3954,7 +4029,7 @@
         <v>28</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="E3" s="10"/>
     </row>
@@ -3967,10 +4042,10 @@
         <v>17</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="E4" s="10"/>
     </row>
@@ -3983,7 +4058,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -4608,13 +4683,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
@@ -4629,16 +4704,16 @@
         <v>18</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:7">
@@ -4654,13 +4729,13 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:7">
@@ -4672,17 +4747,17 @@
         <v>17</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -5283,13 +5358,13 @@
   </sheetPr>
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.7142857142857" style="81" customWidth="1"/>
+    <col min="1" max="1" width="18.7142857142857" style="95" customWidth="1"/>
     <col min="2" max="3" width="12.6285714285714" style="1"/>
     <col min="4" max="4" width="20.8761904761905" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.6285714285714" style="1"/>
@@ -5298,7 +5373,7 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:17">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
@@ -5310,250 +5385,250 @@
       <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="66" t="s">
+      <c r="E1" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="73" t="s">
+      <c r="J1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="73" t="s">
+      <c r="K1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="73" t="s">
+      <c r="L1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="73" t="s">
+      <c r="M1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="73" t="s">
+      <c r="N1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="73" t="s">
+      <c r="O1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="73" t="s">
+      <c r="P1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="73" t="s">
+      <c r="Q1" s="29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:17">
-      <c r="A2" s="82" t="str">
+      <c r="A2" s="96" t="str">
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="84" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="86" t="s">
+      <c r="D2" s="98" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="99" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="88" t="s">
+      <c r="G2" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="80" t="s">
+      <c r="J2" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="80" t="s">
+      <c r="K2" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="80" t="s">
+      <c r="L2" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="78">
-        <v>33333</v>
-      </c>
-      <c r="N2" s="89">
-        <v>33333</v>
-      </c>
-      <c r="O2" s="89">
-        <v>33.3</v>
-      </c>
-      <c r="P2" s="89">
-        <v>33.3</v>
-      </c>
-      <c r="Q2" s="90" t="s">
+      <c r="M2" s="85">
+        <v>1111</v>
+      </c>
+      <c r="N2" s="86">
+        <v>1111</v>
+      </c>
+      <c r="O2" s="86">
+        <v>11.1</v>
+      </c>
+      <c r="P2" s="86">
+        <v>11.1</v>
+      </c>
+      <c r="Q2" s="92" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:17">
-      <c r="A3" s="81" t="str">
+      <c r="A3" s="95" t="str">
         <f t="shared" ref="A3:A12" si="0">_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="98" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="99" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="100" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="85">
+        <v>2222</v>
+      </c>
+      <c r="N3" s="87">
+        <v>2222</v>
+      </c>
+      <c r="O3" s="87">
+        <v>22.2</v>
+      </c>
+      <c r="P3" s="87">
+        <v>22.2</v>
+      </c>
+      <c r="Q3" s="93" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:17">
+      <c r="A4" s="95" t="str">
+        <f t="shared" si="0"/>
+        <v>TC_001TD_02</v>
+      </c>
+      <c r="B4" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="97" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="98" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="100"/>
+      <c r="G4" s="102" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="102" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="85">
+        <v>4444</v>
+      </c>
+      <c r="N4" s="87">
+        <v>4444</v>
+      </c>
+      <c r="O4" s="87">
+        <v>44.4</v>
+      </c>
+      <c r="P4" s="87">
+        <v>44.4</v>
+      </c>
+      <c r="Q4" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="87" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="88" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="80" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="78">
-        <v>4444</v>
-      </c>
-      <c r="N3" s="78">
-        <v>4444</v>
-      </c>
-      <c r="O3" s="78">
-        <v>44.4</v>
-      </c>
-      <c r="P3" s="78">
-        <v>44.4</v>
-      </c>
-      <c r="Q3" s="80" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:17">
-      <c r="A4" s="81" t="str">
-        <f t="shared" si="0"/>
-        <v>TC_001TD_02</v>
-      </c>
-      <c r="B4" s="83" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="84" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="85" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="86"/>
-      <c r="G4" s="87" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="88" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="80" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="78">
-        <v>4444</v>
-      </c>
-      <c r="N4" s="78">
-        <v>4444</v>
-      </c>
-      <c r="O4" s="78">
-        <v>44.4</v>
-      </c>
-      <c r="P4" s="78">
-        <v>44.4</v>
-      </c>
-      <c r="Q4" s="80" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="5" customHeight="1" spans="1:1">
-      <c r="A5" s="81" t="str">
+      <c r="A5" s="95" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
-      <c r="A6" s="81" t="str">
+      <c r="A6" s="95" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
-      <c r="A7" s="81" t="str">
+      <c r="A7" s="95" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="81" t="str">
+      <c r="A8" s="95" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:1">
-      <c r="A9" s="81" t="str">
+      <c r="A9" s="95" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:1">
-      <c r="A10" s="81" t="str">
+      <c r="A10" s="95" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:1">
-      <c r="A11" s="81" t="str">
+      <c r="A11" s="95" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:1">
-      <c r="A12" s="81" t="str">
+      <c r="A12" s="95" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5585,13 +5660,13 @@
   </sheetPr>
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.2857142857143" style="64" customWidth="1"/>
+    <col min="1" max="1" width="20.2857142857143" style="74" customWidth="1"/>
     <col min="2" max="3" width="12.6285714285714" style="1"/>
     <col min="4" max="4" width="18.8761904761905" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="6"/>
@@ -5601,7 +5676,7 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:17">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
@@ -5613,633 +5688,633 @@
       <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="66" t="s">
+      <c r="E1" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="73" t="s">
+      <c r="J1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="73" t="s">
+      <c r="K1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="73" t="s">
+      <c r="L1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="73" t="s">
+      <c r="M1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="73" t="s">
+      <c r="N1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="73" t="s">
+      <c r="O1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="73" t="s">
+      <c r="P1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="73" t="s">
+      <c r="Q1" s="29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:17">
-      <c r="A2" s="64" t="str">
+      <c r="A2" s="74" t="str">
         <f>_xlfn.CONCAT(B2,C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="69">
+      <c r="D2" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="79">
         <v>251311000009</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="71" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="74" t="s">
+      <c r="G2" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="75" t="s">
+      <c r="J2" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="75" t="s">
+      <c r="K2" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="75" t="s">
+      <c r="L2" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="76">
-        <v>33333</v>
-      </c>
-      <c r="N2" s="77">
-        <v>33333</v>
-      </c>
-      <c r="O2" s="77">
-        <v>33.3</v>
-      </c>
-      <c r="P2" s="77">
-        <v>33.3</v>
-      </c>
-      <c r="Q2" s="79" t="s">
+      <c r="M2" s="85">
+        <v>1111</v>
+      </c>
+      <c r="N2" s="86">
+        <v>1111</v>
+      </c>
+      <c r="O2" s="86">
+        <v>11.1</v>
+      </c>
+      <c r="P2" s="86">
+        <v>11.1</v>
+      </c>
+      <c r="Q2" s="92" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:17">
-      <c r="A3" s="64" t="str">
+      <c r="A3" s="74" t="str">
         <f t="shared" ref="A3:A12" si="0">_xlfn.CONCAT(B3,C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="69">
-        <v>251311000010</v>
-      </c>
-      <c r="F3" s="70" t="s">
+      <c r="D3" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="79">
+        <v>251311000009</v>
+      </c>
+      <c r="F3" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="71" t="s">
+      <c r="G3" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="71" t="s">
+      <c r="J3" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="74" t="s">
+      <c r="K3" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="75" t="s">
+      <c r="L3" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="75" t="s">
+      <c r="M3" s="85">
+        <v>2222</v>
+      </c>
+      <c r="N3" s="87">
+        <v>2222</v>
+      </c>
+      <c r="O3" s="87">
+        <v>22.2</v>
+      </c>
+      <c r="P3" s="87">
+        <v>22.2</v>
+      </c>
+      <c r="Q3" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="75" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="76">
+    </row>
+    <row r="4" customHeight="1" spans="1:17">
+      <c r="A4" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>TC_001TD_02</v>
+      </c>
+      <c r="B4" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="79">
+        <v>251311000011</v>
+      </c>
+      <c r="F4" s="80"/>
+      <c r="G4" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="85">
         <v>4444</v>
       </c>
-      <c r="N3" s="78">
+      <c r="N4" s="87">
         <v>4444</v>
       </c>
-      <c r="O3" s="78">
+      <c r="O4" s="87">
         <v>44.4</v>
       </c>
-      <c r="P3" s="78">
+      <c r="P4" s="87">
         <v>44.4</v>
       </c>
-      <c r="Q3" s="80" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:17">
-      <c r="A4" s="64" t="str">
-        <f t="shared" si="0"/>
-        <v>TC_001TD_02</v>
-      </c>
-      <c r="B4" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="69">
-        <v>251311000011</v>
-      </c>
-      <c r="F4" s="70"/>
-      <c r="G4" s="71" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="75" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="76">
-        <v>4444</v>
-      </c>
-      <c r="N4" s="78">
-        <v>4444</v>
-      </c>
-      <c r="O4" s="78">
-        <v>44.4</v>
-      </c>
-      <c r="P4" s="78">
-        <v>44.4</v>
-      </c>
-      <c r="Q4" s="80" t="s">
-        <v>37</v>
+      <c r="Q4" s="93" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:17">
-      <c r="A5" s="64" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="80"/>
+      <c r="A5" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="94"/>
     </row>
     <row r="6" customHeight="1" spans="1:17">
-      <c r="A6" s="64" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="80"/>
+      <c r="A6" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="94"/>
     </row>
     <row r="7" customHeight="1" spans="1:17">
-      <c r="A7" s="64" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="78"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="80"/>
+      <c r="A7" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="94"/>
     </row>
     <row r="8" customHeight="1" spans="1:17">
-      <c r="A8" s="64" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="80"/>
+      <c r="A8" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="94"/>
     </row>
     <row r="9" customHeight="1" spans="1:17">
-      <c r="A9" s="64" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="78"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="78"/>
-      <c r="Q9" s="80"/>
+      <c r="A9" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="94"/>
     </row>
     <row r="10" customHeight="1" spans="1:17">
-      <c r="A10" s="64" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="80"/>
+      <c r="A10" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="94"/>
     </row>
     <row r="11" customHeight="1" spans="1:17">
-      <c r="A11" s="64" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="78"/>
-      <c r="P11" s="78"/>
-      <c r="Q11" s="80"/>
+      <c r="A11" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="94"/>
     </row>
     <row r="12" customHeight="1" spans="1:17">
-      <c r="A12" s="64" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="78"/>
-      <c r="O12" s="78"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="80"/>
+      <c r="A12" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="91"/>
+      <c r="Q12" s="94"/>
     </row>
     <row r="13" customHeight="1" spans="2:17">
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="78"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="78"/>
-      <c r="Q13" s="80"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="94"/>
     </row>
     <row r="14" customHeight="1" spans="2:17">
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="78"/>
-      <c r="O14" s="78"/>
-      <c r="P14" s="78"/>
-      <c r="Q14" s="80"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="94"/>
     </row>
     <row r="15" customHeight="1" spans="2:17">
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="78"/>
-      <c r="O15" s="78"/>
-      <c r="P15" s="78"/>
-      <c r="Q15" s="80"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="94"/>
     </row>
     <row r="16" customHeight="1" spans="2:17">
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="78"/>
-      <c r="O16" s="78"/>
-      <c r="P16" s="78"/>
-      <c r="Q16" s="80"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="91"/>
+      <c r="Q16" s="94"/>
     </row>
     <row r="17" customHeight="1" spans="2:17">
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="78"/>
-      <c r="O17" s="78"/>
-      <c r="P17" s="78"/>
-      <c r="Q17" s="80"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="91"/>
+      <c r="Q17" s="94"/>
     </row>
     <row r="18" customHeight="1" spans="2:17">
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="78"/>
-      <c r="O18" s="78"/>
-      <c r="P18" s="78"/>
-      <c r="Q18" s="80"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="91"/>
+      <c r="O18" s="91"/>
+      <c r="P18" s="91"/>
+      <c r="Q18" s="94"/>
     </row>
     <row r="19" customHeight="1" spans="2:17">
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="78"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="80"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="91"/>
+      <c r="O19" s="91"/>
+      <c r="P19" s="91"/>
+      <c r="Q19" s="94"/>
     </row>
     <row r="20" customHeight="1" spans="2:17">
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="78"/>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="80"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="91"/>
+      <c r="P20" s="91"/>
+      <c r="Q20" s="94"/>
     </row>
     <row r="21" customHeight="1" spans="2:17">
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="78"/>
-      <c r="O21" s="78"/>
-      <c r="P21" s="78"/>
-      <c r="Q21" s="80"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="91"/>
+      <c r="O21" s="91"/>
+      <c r="P21" s="91"/>
+      <c r="Q21" s="94"/>
     </row>
     <row r="22" customHeight="1" spans="2:17">
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="76"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="78"/>
-      <c r="P22" s="78"/>
-      <c r="Q22" s="80"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="91"/>
+      <c r="O22" s="91"/>
+      <c r="P22" s="91"/>
+      <c r="Q22" s="94"/>
     </row>
     <row r="23" customHeight="1" spans="2:17">
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="78"/>
-      <c r="O23" s="78"/>
-      <c r="P23" s="78"/>
-      <c r="Q23" s="80"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="91"/>
+      <c r="O23" s="91"/>
+      <c r="P23" s="91"/>
+      <c r="Q23" s="94"/>
     </row>
     <row r="24" customHeight="1" spans="2:17">
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="78"/>
-      <c r="O24" s="78"/>
-      <c r="P24" s="78"/>
-      <c r="Q24" s="80"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="91"/>
+      <c r="O24" s="91"/>
+      <c r="P24" s="91"/>
+      <c r="Q24" s="94"/>
     </row>
     <row r="25" customHeight="1" spans="2:17">
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="76"/>
-      <c r="N25" s="78"/>
-      <c r="O25" s="78"/>
-      <c r="P25" s="78"/>
-      <c r="Q25" s="80"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="91"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="91"/>
+      <c r="Q25" s="94"/>
     </row>
     <row r="26" customHeight="1" spans="2:17">
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="78"/>
-      <c r="P26" s="78"/>
-      <c r="Q26" s="80"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="90"/>
+      <c r="N26" s="91"/>
+      <c r="O26" s="91"/>
+      <c r="P26" s="91"/>
+      <c r="Q26" s="94"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
@@ -6265,17 +6340,17 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.8571428571429" style="50" customWidth="1"/>
+    <col min="1" max="1" width="16.8571428571429" style="60" customWidth="1"/>
     <col min="2" max="2" width="12.6285714285714" style="1"/>
     <col min="3" max="3" width="10.8571428571429" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.1428571428571" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.6285714285714" style="1"/>
-    <col min="6" max="6" width="19.1428571428571" style="42" customWidth="1"/>
+    <col min="6" max="6" width="19.1428571428571" style="52" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.1428571428571" style="1" customWidth="1"/>
     <col min="9" max="9" width="20" style="1" customWidth="1"/>
@@ -6284,7 +6359,7 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
@@ -6296,327 +6371,327 @@
       <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="53" t="s">
+      <c r="G1" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="H1" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="I1" s="70" t="s">
         <v>55</v>
       </c>
+      <c r="J1" s="71" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
-      <c r="A2" s="54" t="str">
+      <c r="A2" s="64" t="str">
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="56">
+      <c r="D2" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="66">
         <v>21243</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="109" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="109" t="s">
+      <c r="G2" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="62"/>
+      <c r="H2" s="111" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="69"/>
+      <c r="J2" s="72"/>
     </row>
     <row r="3" customHeight="1" spans="1:10">
-      <c r="A3" s="54" t="str">
+      <c r="A3" s="64" t="str">
         <f t="shared" ref="A3:A11" si="0">_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="56">
-        <v>21244</v>
-      </c>
-      <c r="F3" s="57" t="s">
+      <c r="D3" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="66">
+        <v>21243</v>
+      </c>
+      <c r="F3" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="109" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="109" t="s">
+      <c r="G3" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="63"/>
+      <c r="H3" s="111" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="69"/>
+      <c r="J3" s="73"/>
     </row>
     <row r="4" customHeight="1" spans="1:10">
-      <c r="A4" s="54" t="str">
+      <c r="A4" s="64" t="str">
         <f t="shared" si="0"/>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="56">
+      <c r="C4" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="66">
         <v>212435</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="109" t="s">
+      <c r="F4" s="67"/>
+      <c r="G4" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="63"/>
+      <c r="H4" s="111" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="69"/>
+      <c r="J4" s="73"/>
     </row>
     <row r="5" customHeight="1" spans="1:10">
-      <c r="A5" s="54" t="str">
+      <c r="A5" s="64" t="str">
         <f t="shared" si="0"/>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="56">
+      <c r="C5" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="66">
         <v>21246</v>
       </c>
-      <c r="F5" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="109" t="s">
+      <c r="F5" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="I5" s="59"/>
-      <c r="J5" s="63"/>
+      <c r="H5" s="111" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="69"/>
+      <c r="J5" s="73"/>
     </row>
     <row r="6" customHeight="1" spans="1:10">
-      <c r="A6" s="54" t="str">
+      <c r="A6" s="64" t="str">
         <f t="shared" si="0"/>
         <v>TC_002TD_01</v>
       </c>
-      <c r="B6" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="39" t="s">
+      <c r="B6" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="56">
+      <c r="D6" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="66">
         <v>21243</v>
       </c>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59">
+      <c r="F6" s="68"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69">
         <v>11111</v>
       </c>
-      <c r="J6" s="62"/>
+      <c r="J6" s="72"/>
     </row>
     <row r="7" customHeight="1" spans="1:10">
-      <c r="A7" s="54" t="str">
+      <c r="A7" s="64" t="str">
         <f t="shared" si="0"/>
         <v>TC_003TD_02</v>
       </c>
-      <c r="B7" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="39" t="s">
+      <c r="B7" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="62">
+      <c r="D7" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="69"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="72">
         <v>1667789656789</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="50" t="str">
+      <c r="A8" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:1">
-      <c r="A9" s="50" t="str">
+      <c r="A9" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:1">
-      <c r="A10" s="50" t="str">
+      <c r="A10" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:1">
-      <c r="A12" s="50" t="str">
+      <c r="A12" s="60" t="str">
         <f t="shared" ref="A12:A32" si="1">_xlfn.CONCAT(B12:C12)</f>
         <v/>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:1">
-      <c r="A13" s="50" t="str">
+      <c r="A13" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:1">
-      <c r="A14" s="50" t="str">
+      <c r="A14" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:1">
-      <c r="A15" s="50" t="str">
+      <c r="A15" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:1">
-      <c r="A16" s="50" t="str">
+      <c r="A16" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:1">
-      <c r="A17" s="50" t="str">
+      <c r="A17" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:1">
-      <c r="A18" s="50" t="str">
+      <c r="A18" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:1">
-      <c r="A19" s="50" t="str">
+      <c r="A19" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:1">
-      <c r="A20" s="50" t="str">
+      <c r="A20" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:1">
-      <c r="A21" s="50" t="str">
+      <c r="A21" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:1">
-      <c r="A22" s="50" t="str">
+      <c r="A22" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:1">
-      <c r="A23" s="50" t="str">
+      <c r="A23" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:1">
-      <c r="A24" s="50" t="str">
+      <c r="A24" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:1">
-      <c r="A25" s="50" t="str">
+      <c r="A25" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:1">
-      <c r="A26" s="50" t="str">
+      <c r="A26" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:1">
-      <c r="A27" s="50" t="str">
+      <c r="A27" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:1">
-      <c r="A28" s="50" t="str">
+      <c r="A28" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:1">
-      <c r="A29" s="50" t="str">
+      <c r="A29" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:1">
-      <c r="A30" s="50" t="str">
+      <c r="A30" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:1">
-      <c r="A31" s="50" t="str">
+      <c r="A31" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:1">
-      <c r="A32" s="50" t="str">
+      <c r="A32" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -6645,8 +6720,8 @@
   </sheetPr>
   <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -6683,52 +6758,52 @@
         <v>3</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="47" t="s">
         <v>72</v>
       </c>
+      <c r="J1" s="57" t="s">
+        <v>73</v>
+      </c>
       <c r="K1" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="O1" s="38" t="s">
         <v>77</v>
       </c>
+      <c r="O1" s="48" t="s">
+        <v>78</v>
+      </c>
       <c r="P1" s="15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T1" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:20">
@@ -6736,62 +6811,62 @@
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="44" t="s">
+      <c r="D2" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="E2" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="110" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="48" t="s">
+      <c r="H2" s="112" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="J2" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="L2" s="48" t="s">
+      <c r="K2" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="L2" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="M2" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="O2" s="49">
+      <c r="N2" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="O2" s="59">
         <v>1.1312423423434e+17</v>
       </c>
-      <c r="P2" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q2" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="R2" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="S2" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="T2" s="43" t="s">
-        <v>91</v>
+      <c r="P2" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q2" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="R2" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="S2" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="T2" s="53" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:20">
@@ -6799,60 +6874,60 @@
         <f>_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="45" t="s">
+      <c r="D3" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="110" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="48" t="s">
+      <c r="G3" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="J3" s="48" t="s">
+      <c r="H3" s="112" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="K3" s="48" t="s">
+      <c r="J3" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="L3" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="M3" s="43"/>
-      <c r="N3" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="O3" s="49">
+      <c r="K3" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="L3" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" s="53"/>
+      <c r="N3" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="O3" s="59">
         <v>1.1312423423434e+17</v>
       </c>
-      <c r="P3" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q3" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="R3" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="S3" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="T3" s="43" t="s">
-        <v>91</v>
+      <c r="P3" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q3" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="R3" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="S3" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="T3" s="53" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:20">
@@ -6860,62 +6935,62 @@
         <f>_xlfn.CONCAT(B4:C4)</f>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="44" t="s">
+      <c r="C4" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="112" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="K4" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="110" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="J4" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="K4" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="L4" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="M4" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="N4" s="48" t="s">
+      <c r="L4" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="M4" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="O4" s="49">
+      <c r="N4" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="O4" s="59">
         <v>1.1312423423434e+17</v>
       </c>
-      <c r="P4" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q4" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="R4" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="S4" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="T4" s="43" t="s">
-        <v>91</v>
+      <c r="P4" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q4" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="R4" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="S4" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="T4" s="53" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -6923,11 +6998,11 @@
         <f t="shared" ref="A5:A12" si="0">_xlfn.CONCAT(B5:C5)</f>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="39" t="s">
-        <v>38</v>
+      <c r="C5" s="49" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
@@ -7244,7 +7319,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
@@ -7268,11 +7343,11 @@
       <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="38" t="s">
-        <v>49</v>
+      <c r="E1" s="48" t="s">
+        <v>50</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
@@ -7280,20 +7355,20 @@
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="41">
+      <c r="D2" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="51">
         <v>251311000009</v>
       </c>
-      <c r="F2" s="42" t="s">
-        <v>101</v>
+      <c r="F2" s="52" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
@@ -7301,20 +7376,20 @@
         <f t="shared" ref="A3:A9" si="0">_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="41">
-        <v>251311000010</v>
-      </c>
-      <c r="F3" s="42" t="s">
+      <c r="D3" s="50" t="s">
         <v>102</v>
+      </c>
+      <c r="E3" s="51">
+        <v>251311000009</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
@@ -7322,20 +7397,20 @@
         <f t="shared" si="0"/>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="41">
+      <c r="C4" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="51">
         <v>251311000011</v>
       </c>
-      <c r="F4" s="42" t="s">
-        <v>103</v>
+      <c r="F4" s="52" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
@@ -7343,20 +7418,20 @@
         <f t="shared" si="0"/>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="41">
+      <c r="C5" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="51">
         <v>251311000012</v>
       </c>
-      <c r="F5" s="42" t="s">
-        <v>104</v>
+      <c r="F5" s="52" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
@@ -7751,38 +7826,38 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="5" max="5" width="14" style="28"/>
+    <col min="5" max="5" width="14" style="38"/>
     <col min="7" max="7" width="20.1333333333333" customWidth="1"/>
     <col min="8" max="8" width="17.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="32" t="s">
+      <c r="E1" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>106</v>
+      <c r="G1" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>108</v>
       </c>
       <c r="I1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:9">
@@ -7790,29 +7865,29 @@
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" s="36" t="s">
+      <c r="D2" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="E2" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="F2" s="46" t="s">
         <v>112</v>
       </c>
+      <c r="G2" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>114</v>
+      </c>
       <c r="I2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:9">
@@ -7820,27 +7895,27 @@
         <f t="shared" ref="A3:A11" si="0">_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="111" t="s">
-        <v>113</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="G3" s="36" t="s">
+      <c r="D3" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="113" t="s">
         <v>115</v>
       </c>
-      <c r="H3" s="37"/>
+      <c r="F3" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" s="47"/>
       <c r="I3" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:8">
@@ -7848,53 +7923,53 @@
         <f t="shared" si="0"/>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="111" t="s">
-        <v>117</v>
-      </c>
-      <c r="F4" s="36" t="s">
+      <c r="C4" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="113" t="s">
         <v>118</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="F4" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="H4" s="37"/>
+      <c r="G4" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="111" t="s">
-        <v>121</v>
-      </c>
-      <c r="F5" s="36" t="s">
+      <c r="C5" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="113" t="s">
         <v>122</v>
       </c>
-      <c r="G5" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>112</v>
+      <c r="F5" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>114</v>
       </c>
       <c r="I5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:8">
@@ -7902,8 +7977,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H6" s="37" t="s">
-        <v>123</v>
+      <c r="H6" s="47" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
@@ -7982,10 +8057,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V100"/>
+  <dimension ref="A1:AD100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -7997,7 +8072,7 @@
     <col min="7" max="16384" width="12.6285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:22">
+    <row r="1" customHeight="1" spans="1:30">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -8008,62 +8083,86 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="T1" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="U1" s="25"/>
-      <c r="V1" s="24" t="s">
+      <c r="T1" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB1" s="34" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:19">
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:30">
       <c r="A2" s="1" t="str">
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
@@ -8075,55 +8174,82 @@
         <v>18</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>142</v>
-      </c>
       <c r="P2" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="R2" s="26">
+        <v>153</v>
+      </c>
+      <c r="R2" s="30">
         <v>7877997701</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:19">
+        <v>154</v>
+      </c>
+      <c r="T2" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="X2" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y2" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z2" s="35">
+        <v>33333</v>
+      </c>
+      <c r="AA2" s="36">
+        <v>33333</v>
+      </c>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:30">
       <c r="A3" s="1" t="str">
         <f t="shared" ref="A3:A13" si="0">_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
@@ -8134,24 +8260,83 @@
       <c r="C3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="5"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:19">
+      <c r="D3" s="114" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="R3" s="30">
+        <v>7877997701</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="T3" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="U3" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="V3" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="X3" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y3" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z3" s="35">
+        <v>4444</v>
+      </c>
+      <c r="AA3" s="37">
+        <v>4444</v>
+      </c>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:30">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>TC_001TD_03</v>
@@ -8160,72 +8345,363 @@
         <v>17</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="5"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:1">
+        <v>36</v>
+      </c>
+      <c r="D4" s="115" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="R4" s="30">
+        <v>7877997701</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="T4" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="V4" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="W4" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="X4" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y4" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z4" s="35">
+        <v>4444</v>
+      </c>
+      <c r="AA4" s="37">
+        <v>4444</v>
+      </c>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:30">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:1">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="25"/>
+      <c r="AD5" s="25"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:30">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:1">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="25"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:30">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:1">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="25"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:30">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:1">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
+      <c r="AC8" s="25"/>
+      <c r="AD8" s="25"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:30">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:1">
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="25"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:30">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:1">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="25"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:30">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:1">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="25"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:30">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="25"/>
     </row>
     <row r="13" customHeight="1" spans="1:1">
       <c r="A13" s="1" t="str">
@@ -8802,10 +9278,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:6">
@@ -8820,13 +9296,13 @@
         <v>18</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="E2" s="22">
         <v>251311000009</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:6">
@@ -8835,19 +9311,19 @@
         <v>TC_002TD_02</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="E3" s="22">
         <v>251311000009</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:1">

--- a/Resource/TestData/WKD_DATAPOOL.xlsx
+++ b/Resource/TestData/WKD_DATAPOOL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" tabRatio="803" firstSheet="5" activeTab="10"/>
+    <workbookView windowWidth="19815" windowHeight="7815" tabRatio="803" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="PROFILE_ADDRESS" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="216">
   <si>
     <t>DUPLICATE_ENTRY</t>
   </si>
@@ -193,7 +193,7 @@
     <t>ALTERNATE CONTACT</t>
   </si>
   <si>
-    <t>DOCUMENT_ID</t>
+    <t>DOCUMENT_NAME</t>
   </si>
   <si>
     <t>ID_NUMBER</t>
@@ -202,6 +202,9 @@
     <t>Edit Profile Details</t>
   </si>
   <si>
+    <t>email12@gmail.com</t>
+  </si>
+  <si>
     <t>918712341100</t>
   </si>
   <si>
@@ -232,6 +235,9 @@
     <t>View Doc</t>
   </si>
   <si>
+    <t>connection migration logs (1).txt</t>
+  </si>
+  <si>
     <t>TC_003</t>
   </si>
   <si>
@@ -316,63 +322,66 @@
     <t>Somali</t>
   </si>
   <si>
+    <t>test_hierarchy</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>ACNAME3</t>
+  </si>
+  <si>
     <t>impl_slm</t>
   </si>
   <si>
-    <t>Email</t>
+    <t>NATIONAL BANK OF ETHOPIA</t>
+  </si>
+  <si>
+    <t>SERVICE_NAME</t>
+  </si>
+  <si>
+    <t>Edit  Service</t>
+  </si>
+  <si>
+    <t>SERVICE 1</t>
+  </si>
+  <si>
+    <t>SERVICE 2</t>
+  </si>
+  <si>
+    <t>SERVICE 3</t>
+  </si>
+  <si>
+    <t>SERVICE 4</t>
+  </si>
+  <si>
+    <t>REASON</t>
+  </si>
+  <si>
+    <t>PAYMENT</t>
+  </si>
+  <si>
+    <t>WAVEOFF</t>
+  </si>
+  <si>
+    <t>Change SIM</t>
+  </si>
+  <si>
+    <t>251311000009</t>
+  </si>
+  <si>
+    <t>Comment 1</t>
+  </si>
+  <si>
+    <t>Simcard Damage</t>
+  </si>
+  <si>
+    <t>Invoice</t>
   </si>
   <si>
     <t>NO</t>
   </si>
   <si>
-    <t>ACNAME3</t>
-  </si>
-  <si>
-    <t>NATIONAL BANK OF ETHOPIA</t>
-  </si>
-  <si>
-    <t>SERVICE_NAME</t>
-  </si>
-  <si>
-    <t>Edit  Service</t>
-  </si>
-  <si>
-    <t>SERVICE 1</t>
-  </si>
-  <si>
-    <t>SERVICE 2</t>
-  </si>
-  <si>
-    <t>SERVICE 3</t>
-  </si>
-  <si>
-    <t>SERVICE 4</t>
-  </si>
-  <si>
-    <t>REASON</t>
-  </si>
-  <si>
-    <t>PAYMENT</t>
-  </si>
-  <si>
-    <t>WAVEOFF</t>
-  </si>
-  <si>
-    <t>Change SIM</t>
-  </si>
-  <si>
-    <t>251311000009</t>
-  </si>
-  <si>
-    <t>Comment 1</t>
-  </si>
-  <si>
-    <t>Simcard Damage</t>
-  </si>
-  <si>
-    <t>Invoice</t>
-  </si>
-  <si>
     <t>251311000010</t>
   </si>
   <si>
@@ -445,6 +454,9 @@
     <t>Contact_Number</t>
   </si>
   <si>
+    <t>Language</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -562,6 +574,27 @@
     <t>Argobba</t>
   </si>
   <si>
+    <t>TD_04</t>
+  </si>
+  <si>
+    <t>Netflix Plan</t>
+  </si>
+  <si>
+    <t>Issue with Netflix Plan -Mobile</t>
+  </si>
+  <si>
+    <t>Netflix Plan-Mobile</t>
+  </si>
+  <si>
+    <t>Issue with Netflix Plan Postpaid-Mobile User</t>
+  </si>
+  <si>
+    <t>Netflix OTT Plan</t>
+  </si>
+  <si>
+    <t>Latest 30/06/22- 2</t>
+  </si>
+  <si>
     <t>OFFER</t>
   </si>
   <si>
@@ -616,7 +649,7 @@
     <t>Order Look Up</t>
   </si>
   <si>
-    <t>987304758258810880</t>
+    <t>991891612368760832</t>
   </si>
   <si>
     <t>New device status</t>
@@ -648,14 +681,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="177" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="176" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="57">
+  <fonts count="59">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -810,6 +843,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF202124"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -846,6 +886,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -919,13 +966,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -933,7 +973,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -941,22 +981,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1002,8 +1035,30 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1017,16 +1072,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1034,7 +1081,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1046,15 +1100,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="44">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1075,7 +1122,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,12 +1154,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF5B9BD5"/>
         <bgColor rgb="FF5B9BD5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1117,8 +1182,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF5B9BD5"/>
       </patternFill>
     </fill>
     <fill>
@@ -1129,13 +1194,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1147,31 +1260,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1183,91 +1284,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1291,13 +1314,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1309,7 +1338,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1334,6 +1387,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1379,11 +1447,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1406,81 +1472,68 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1489,101 +1542,101 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -1595,241 +1648,146 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="14" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="176" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1844,91 +1802,234 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="14" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="22" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2046,7 +2147,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6485890" y="200025"/>
+              <a:off x="6752590" y="200025"/>
               <a:ext cx="1342390" cy="200025"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2265,12 +2366,12 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:H3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="17.7142857142857" style="60" customWidth="1"/>
+    <col min="1" max="1" width="17.7142857142857" style="78" customWidth="1"/>
     <col min="2" max="3" width="12.6285714285714" style="1"/>
     <col min="4" max="4" width="26.247619047619" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.6285714285714" style="1"/>
@@ -2281,256 +2382,256 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:17">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="104" t="s">
+      <c r="H1" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="P1" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="Q1" s="41" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:17">
-      <c r="A2" s="64" t="str">
+      <c r="A2" s="82" t="str">
         <f t="shared" ref="A2:A7" si="0">_xlfn.CONCAT(B2,C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="106" t="s">
+      <c r="D2" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="107">
+      <c r="E2" s="124">
         <v>21243</v>
       </c>
-      <c r="F2" s="108" t="s">
+      <c r="F2" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="101" t="s">
+      <c r="H2" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="110" t="s">
+      <c r="I2" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="84" t="s">
+      <c r="J2" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="84" t="s">
+      <c r="K2" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="84" t="s">
+      <c r="L2" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="85">
+      <c r="M2" s="103">
         <v>1111</v>
       </c>
-      <c r="N2" s="86">
+      <c r="N2" s="104">
         <v>1111</v>
       </c>
-      <c r="O2" s="86">
+      <c r="O2" s="104">
         <v>11.1</v>
       </c>
-      <c r="P2" s="86">
+      <c r="P2" s="104">
         <v>11.1</v>
       </c>
-      <c r="Q2" s="92" t="s">
+      <c r="Q2" s="110" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:17">
-      <c r="A3" s="64" t="str">
+      <c r="A3" s="82" t="str">
         <f t="shared" si="0"/>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="106" t="s">
+      <c r="D3" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="107">
+      <c r="E3" s="124">
         <v>21243</v>
       </c>
-      <c r="F3" s="108" t="s">
+      <c r="F3" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="81" t="s">
+      <c r="G3" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="101" t="s">
+      <c r="H3" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="110" t="s">
+      <c r="I3" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="84" t="s">
+      <c r="J3" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="84" t="s">
+      <c r="K3" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="84" t="s">
+      <c r="L3" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="85">
+      <c r="M3" s="103">
         <v>2222</v>
       </c>
-      <c r="N3" s="87">
+      <c r="N3" s="105">
         <v>2222</v>
       </c>
-      <c r="O3" s="87">
+      <c r="O3" s="105">
         <v>22.2</v>
       </c>
-      <c r="P3" s="87">
+      <c r="P3" s="105">
         <v>22.2</v>
       </c>
-      <c r="Q3" s="93" t="s">
+      <c r="Q3" s="111" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:17">
-      <c r="A4" s="64" t="str">
+      <c r="A4" s="82" t="str">
         <f t="shared" si="0"/>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="107">
+      <c r="E4" s="124">
         <v>21243</v>
       </c>
-      <c r="F4" s="108"/>
-      <c r="G4" s="31" t="s">
+      <c r="F4" s="125"/>
+      <c r="G4" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="110" t="s">
+      <c r="I4" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="84" t="s">
+      <c r="J4" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="84" t="s">
+      <c r="L4" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="85">
+      <c r="M4" s="103">
         <v>4444</v>
       </c>
-      <c r="N4" s="87">
+      <c r="N4" s="105">
         <v>4444</v>
       </c>
-      <c r="O4" s="87">
+      <c r="O4" s="105">
         <v>44.4</v>
       </c>
-      <c r="P4" s="87">
+      <c r="P4" s="105">
         <v>44.4</v>
       </c>
-      <c r="Q4" s="93" t="s">
+      <c r="Q4" s="111" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="96" t="str">
+      <c r="A5" s="114" t="str">
         <f t="shared" si="0"/>
         <v>TC_001TD_05</v>
       </c>
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="122" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="96" t="str">
+      <c r="A6" s="114" t="str">
         <f t="shared" si="0"/>
         <v>TC_001TD_05</v>
       </c>
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="105" t="s">
+      <c r="C6" s="122" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="96" t="str">
+      <c r="A7" s="114" t="str">
         <f t="shared" si="0"/>
         <v>TC_001TD_05</v>
       </c>
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="122" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="4:4">
-      <c r="D8" s="109"/>
+      <c r="D8" s="126"/>
     </row>
   </sheetData>
   <sheetProtection password="CC65" sheet="1" selectLockedCells="1" objects="1"/>
@@ -2552,7 +2653,7 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -2561,12 +2662,13 @@
     <col min="2" max="2" width="16.4285714285714" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.14285714285714" style="1"/>
     <col min="4" max="4" width="18.4285714285714" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.14285714285714" style="1"/>
+    <col min="5" max="5" width="17.1428571428571" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:8">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -2575,20 +2677,20 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>184</v>
+      <c r="F1" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:8">
@@ -2596,64 +2698,69 @@
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="G2" s="18">
+      <c r="D2" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="25">
         <v>5787</v>
       </c>
-      <c r="H2" s="19" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:6">
+      <c r="H2" s="26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:8">
       <c r="A3" s="1" t="str">
         <f t="shared" ref="A3:A22" si="0">_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:5">
+      <c r="D3" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:8">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E4" s="12"/>
+      <c r="D4" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="str">
@@ -3232,7 +3339,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CC65" sheet="1" objects="1"/>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
@@ -3250,7 +3356,7 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -3267,7 +3373,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:8">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -3277,18 +3383,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3297,26 +3403,26 @@
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>191</v>
+      <c r="D2" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:8">
@@ -3324,26 +3430,26 @@
         <f t="shared" ref="A3:A18" si="0">_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>191</v>
+      <c r="D3" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:8">
@@ -3351,26 +3457,26 @@
         <f t="shared" si="0"/>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>191</v>
+      <c r="D4" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -3950,7 +4056,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CC65" sheet="1" objects="1"/>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
@@ -3968,7 +4073,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -3977,7 +4082,7 @@
     <col min="2" max="2" width="17.1428571428571" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.8571428571429" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7142857142857" style="6" customWidth="1"/>
+    <col min="5" max="5" width="23.7142857142857" style="9" customWidth="1"/>
     <col min="6" max="6" width="18.8571428571429" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.14285714285714" style="1"/>
   </cols>
@@ -3993,646 +4098,647 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
-      <c r="A2" s="8" t="str">
+      <c r="A2" s="11" t="str">
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E2" s="116" t="s">
-        <v>196</v>
+      <c r="D2" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" s="133" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
-      <c r="A3" s="8" t="str">
+      <c r="A3" s="11" t="str">
         <f>_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E3" s="10"/>
+      <c r="D3" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" ht="14.25" spans="1:5">
-      <c r="A4" s="8" t="str">
+      <c r="A4" s="11" t="str">
         <f>_xlfn.CONCAT(B4:C4)</f>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" ht="14.25" spans="1:3">
-      <c r="A5" s="8" t="str">
+      <c r="D4" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:5">
+      <c r="A5" s="11" t="str">
         <f t="shared" ref="A5:A23" si="0">_xlfn.CONCAT(B5:C5)</f>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>36</v>
       </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="8" t="str">
+      <c r="A6" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="8" t="str">
+      <c r="A7" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="8" t="str">
+      <c r="A8" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="8" t="str">
+      <c r="A9" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="8" t="str">
+      <c r="A10" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="8" t="str">
+      <c r="A11" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="8" t="str">
+      <c r="A12" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="8" t="str">
+      <c r="A13" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="8" t="str">
+      <c r="A14" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="8" t="str">
+      <c r="A15" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="8" t="str">
+      <c r="A16" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="8" t="str">
+      <c r="A17" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="8" t="str">
+      <c r="A18" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="8" t="str">
+      <c r="A19" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="8" t="str">
+      <c r="A20" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="8" t="str">
+      <c r="A21" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="8" t="str">
+      <c r="A22" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="8" t="str">
+      <c r="A23" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="8" t="str">
+      <c r="A24" s="11" t="str">
         <f t="shared" ref="A24:A55" si="1">_xlfn.CONCAT(B24:C24)</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="8" t="str">
+      <c r="A25" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="8" t="str">
+      <c r="A26" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="8" t="str">
+      <c r="A27" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="8" t="str">
+      <c r="A28" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="8" t="str">
+      <c r="A29" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="8" t="str">
+      <c r="A30" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="8" t="str">
+      <c r="A31" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="8" t="str">
+      <c r="A32" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="8" t="str">
+      <c r="A33" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="8" t="str">
+      <c r="A34" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="8" t="str">
+      <c r="A35" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="8" t="str">
+      <c r="A36" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="8" t="str">
+      <c r="A37" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="8" t="str">
+      <c r="A38" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="8" t="str">
+      <c r="A39" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="8" t="str">
+      <c r="A40" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="8" t="str">
+      <c r="A41" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="8" t="str">
+      <c r="A42" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="8" t="str">
+      <c r="A43" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="8" t="str">
+      <c r="A44" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="8" t="str">
+      <c r="A45" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="8" t="str">
+      <c r="A46" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="8" t="str">
+      <c r="A47" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="8" t="str">
+      <c r="A48" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="8" t="str">
+      <c r="A49" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="8" t="str">
+      <c r="A50" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="8" t="str">
+      <c r="A51" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="8" t="str">
+      <c r="A52" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="8" t="str">
+      <c r="A53" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="8" t="str">
+      <c r="A54" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="8" t="str">
+      <c r="A55" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="8" t="str">
+      <c r="A56" s="11" t="str">
         <f t="shared" ref="A56:A100" si="2">_xlfn.CONCAT(B56:C56)</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="8" t="str">
+      <c r="A57" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="8" t="str">
+      <c r="A58" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="8" t="str">
+      <c r="A59" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="8" t="str">
+      <c r="A60" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="8" t="str">
+      <c r="A61" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="8" t="str">
+      <c r="A62" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="8" t="str">
+      <c r="A63" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="8" t="str">
+      <c r="A64" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="8" t="str">
+      <c r="A65" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="8" t="str">
+      <c r="A66" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="8" t="str">
+      <c r="A67" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="8" t="str">
+      <c r="A68" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="8" t="str">
+      <c r="A69" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="8" t="str">
+      <c r="A70" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="8" t="str">
+      <c r="A71" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="8" t="str">
+      <c r="A72" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="8" t="str">
+      <c r="A73" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="8" t="str">
+      <c r="A74" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="8" t="str">
+      <c r="A75" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="8" t="str">
+      <c r="A76" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="8" t="str">
+      <c r="A77" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="8" t="str">
+      <c r="A78" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="8" t="str">
+      <c r="A79" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="8" t="str">
+      <c r="A80" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="8" t="str">
+      <c r="A81" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="8" t="str">
+      <c r="A82" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="8" t="str">
+      <c r="A83" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="8" t="str">
+      <c r="A84" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="8" t="str">
+      <c r="A85" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="8" t="str">
+      <c r="A86" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="8" t="str">
+      <c r="A87" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="8" t="str">
+      <c r="A88" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="8" t="str">
+      <c r="A89" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="8" t="str">
+      <c r="A90" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="8" t="str">
+      <c r="A91" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="8" t="str">
+      <c r="A92" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="8" t="str">
+      <c r="A93" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="8" t="str">
+      <c r="A94" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="8" t="str">
+      <c r="A95" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="8" t="str">
+      <c r="A96" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="8" t="str">
+      <c r="A97" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="8" t="str">
+      <c r="A98" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="8" t="str">
+      <c r="A99" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="8" t="str">
+      <c r="A100" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CC65" sheet="1" objects="1"/>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
@@ -4654,7 +4760,7 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -4683,13 +4789,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>198</v>
+        <v>128</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
@@ -4697,23 +4803,23 @@
         <f>_xlfn.CONCAT(B2,C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>201</v>
+      <c r="D2" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:7">
@@ -4721,21 +4827,21 @@
         <f t="shared" ref="A3:A34" si="0">_xlfn.CONCAT(B3,C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>202</v>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:7">
@@ -4743,21 +4849,21 @@
         <f t="shared" si="0"/>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>204</v>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -5337,7 +5443,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CC65" sheet="1" objects="1"/>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
     <cfRule type="duplicateValues" dxfId="1" priority="3"/>
@@ -5358,13 +5463,13 @@
   </sheetPr>
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.7142857142857" style="95" customWidth="1"/>
+    <col min="1" max="1" width="18.7142857142857" style="113" customWidth="1"/>
     <col min="2" max="3" width="12.6285714285714" style="1"/>
     <col min="4" max="4" width="20.8761904761905" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.6285714285714" style="1"/>
@@ -5373,262 +5478,262 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:17">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="76" t="s">
+      <c r="I1" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="P1" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="Q1" s="41" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:17">
-      <c r="A2" s="96" t="str">
+      <c r="A2" s="114" t="str">
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="98" t="s">
+      <c r="D2" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="99" t="s">
+      <c r="E2" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="100" t="s">
+      <c r="F2" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="82" t="s">
+      <c r="H2" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="103" t="s">
+      <c r="I2" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="84" t="s">
+      <c r="J2" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="84" t="s">
+      <c r="K2" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="84" t="s">
+      <c r="L2" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="85">
+      <c r="M2" s="103">
         <v>1111</v>
       </c>
-      <c r="N2" s="86">
+      <c r="N2" s="104">
         <v>1111</v>
       </c>
-      <c r="O2" s="86">
+      <c r="O2" s="104">
         <v>11.1</v>
       </c>
-      <c r="P2" s="86">
+      <c r="P2" s="104">
         <v>11.1</v>
       </c>
-      <c r="Q2" s="92" t="s">
+      <c r="Q2" s="110" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:17">
-      <c r="A3" s="95" t="str">
+      <c r="A3" s="113" t="str">
         <f t="shared" ref="A3:A12" si="0">_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="98" t="s">
+      <c r="D3" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="99" t="s">
+      <c r="E3" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="100" t="s">
+      <c r="F3" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="81" t="s">
+      <c r="G3" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="101" t="s">
+      <c r="H3" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="103" t="s">
+      <c r="I3" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="84" t="s">
+      <c r="J3" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="84" t="s">
+      <c r="K3" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="84" t="s">
+      <c r="L3" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="85">
+      <c r="M3" s="103">
         <v>2222</v>
       </c>
-      <c r="N3" s="87">
+      <c r="N3" s="105">
         <v>2222</v>
       </c>
-      <c r="O3" s="87">
+      <c r="O3" s="105">
         <v>22.2</v>
       </c>
-      <c r="P3" s="87">
+      <c r="P3" s="105">
         <v>22.2</v>
       </c>
-      <c r="Q3" s="93" t="s">
+      <c r="Q3" s="111" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:17">
-      <c r="A4" s="95" t="str">
+      <c r="A4" s="113" t="str">
         <f t="shared" si="0"/>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="98" t="s">
+      <c r="D4" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="99" t="s">
+      <c r="E4" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="102" t="s">
+      <c r="F4" s="117"/>
+      <c r="G4" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="102" t="s">
+      <c r="H4" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="103" t="s">
+      <c r="I4" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="84" t="s">
+      <c r="J4" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="84" t="s">
+      <c r="L4" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="85">
+      <c r="M4" s="103">
         <v>4444</v>
       </c>
-      <c r="N4" s="87">
+      <c r="N4" s="105">
         <v>4444</v>
       </c>
-      <c r="O4" s="87">
+      <c r="O4" s="105">
         <v>44.4</v>
       </c>
-      <c r="P4" s="87">
+      <c r="P4" s="105">
         <v>44.4</v>
       </c>
-      <c r="Q4" s="93" t="s">
+      <c r="Q4" s="111" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:1">
-      <c r="A5" s="95" t="str">
+      <c r="A5" s="113" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
-      <c r="A6" s="95" t="str">
+      <c r="A6" s="113" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
-      <c r="A7" s="95" t="str">
+      <c r="A7" s="113" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="95" t="str">
+      <c r="A8" s="113" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:1">
-      <c r="A9" s="95" t="str">
+      <c r="A9" s="113" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:1">
-      <c r="A10" s="95" t="str">
+      <c r="A10" s="113" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:1">
-      <c r="A11" s="95" t="str">
+      <c r="A11" s="113" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:1">
-      <c r="A12" s="95" t="str">
+      <c r="A12" s="113" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5660,661 +5765,661 @@
   </sheetPr>
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.2857142857143" style="74" customWidth="1"/>
+    <col min="1" max="1" width="20.2857142857143" style="94" customWidth="1"/>
     <col min="2" max="3" width="12.6285714285714" style="1"/>
     <col min="4" max="4" width="18.8761904761905" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="6"/>
+    <col min="5" max="5" width="14" style="9"/>
     <col min="6" max="6" width="21.2857142857143" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.2857142857143" style="1" customWidth="1"/>
     <col min="8" max="16384" width="12.6285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:17">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="76" t="s">
+      <c r="I1" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="P1" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="Q1" s="41" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:17">
-      <c r="A2" s="74" t="str">
+      <c r="A2" s="94" t="str">
         <f>_xlfn.CONCAT(B2,C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="79">
+      <c r="E2" s="98">
         <v>251311000009</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="F2" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="82" t="s">
+      <c r="H2" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="83" t="s">
+      <c r="I2" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="84" t="s">
+      <c r="J2" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="84" t="s">
+      <c r="K2" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="84" t="s">
+      <c r="L2" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="85">
+      <c r="M2" s="103">
         <v>1111</v>
       </c>
-      <c r="N2" s="86">
+      <c r="N2" s="104">
         <v>1111</v>
       </c>
-      <c r="O2" s="86">
+      <c r="O2" s="104">
         <v>11.1</v>
       </c>
-      <c r="P2" s="86">
+      <c r="P2" s="104">
         <v>11.1</v>
       </c>
-      <c r="Q2" s="92" t="s">
+      <c r="Q2" s="110" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:17">
-      <c r="A3" s="74" t="str">
+      <c r="A3" s="94" t="str">
         <f t="shared" ref="A3:A12" si="0">_xlfn.CONCAT(B3,C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="79">
+      <c r="E3" s="98">
         <v>251311000009</v>
       </c>
-      <c r="F3" s="80" t="s">
+      <c r="F3" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="81" t="s">
+      <c r="G3" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="82" t="s">
+      <c r="H3" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="83" t="s">
+      <c r="I3" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="84" t="s">
+      <c r="J3" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="84" t="s">
+      <c r="K3" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="84" t="s">
+      <c r="L3" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="85">
+      <c r="M3" s="103">
         <v>2222</v>
       </c>
-      <c r="N3" s="87">
+      <c r="N3" s="105">
         <v>2222</v>
       </c>
-      <c r="O3" s="87">
+      <c r="O3" s="105">
         <v>22.2</v>
       </c>
-      <c r="P3" s="87">
+      <c r="P3" s="105">
         <v>22.2</v>
       </c>
-      <c r="Q3" s="93" t="s">
+      <c r="Q3" s="111" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:17">
-      <c r="A4" s="74" t="str">
+      <c r="A4" s="94" t="str">
         <f t="shared" si="0"/>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="79">
+      <c r="E4" s="98">
         <v>251311000011</v>
       </c>
-      <c r="F4" s="80"/>
-      <c r="G4" s="81" t="s">
+      <c r="F4" s="99"/>
+      <c r="G4" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="81" t="s">
+      <c r="H4" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="83" t="s">
+      <c r="I4" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="84" t="s">
+      <c r="J4" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="84" t="s">
+      <c r="L4" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="85">
+      <c r="M4" s="103">
         <v>4444</v>
       </c>
-      <c r="N4" s="87">
+      <c r="N4" s="105">
         <v>4444</v>
       </c>
-      <c r="O4" s="87">
+      <c r="O4" s="105">
         <v>44.4</v>
       </c>
-      <c r="P4" s="87">
+      <c r="P4" s="105">
         <v>44.4</v>
       </c>
-      <c r="Q4" s="93" t="s">
+      <c r="Q4" s="111" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:17">
-      <c r="A5" s="74" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="94"/>
+      <c r="A5" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="112"/>
     </row>
     <row r="6" customHeight="1" spans="1:17">
-      <c r="A6" s="74" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="91"/>
-      <c r="P6" s="91"/>
-      <c r="Q6" s="94"/>
+      <c r="A6" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="109"/>
+      <c r="Q6" s="112"/>
     </row>
     <row r="7" customHeight="1" spans="1:17">
-      <c r="A7" s="74" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="94"/>
+      <c r="A7" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
+      <c r="P7" s="109"/>
+      <c r="Q7" s="112"/>
     </row>
     <row r="8" customHeight="1" spans="1:17">
-      <c r="A8" s="74" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="91"/>
-      <c r="P8" s="91"/>
-      <c r="Q8" s="94"/>
+      <c r="A8" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="112"/>
     </row>
     <row r="9" customHeight="1" spans="1:17">
-      <c r="A9" s="74" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="91"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="94"/>
+      <c r="A9" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="112"/>
     </row>
     <row r="10" customHeight="1" spans="1:17">
-      <c r="A10" s="74" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="91"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="94"/>
+      <c r="A10" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="112"/>
     </row>
     <row r="11" customHeight="1" spans="1:17">
-      <c r="A11" s="74" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="91"/>
-      <c r="O11" s="91"/>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="94"/>
+      <c r="A11" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="107"/>
+      <c r="M11" s="108"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="112"/>
     </row>
     <row r="12" customHeight="1" spans="1:17">
-      <c r="A12" s="74" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="91"/>
-      <c r="O12" s="91"/>
-      <c r="P12" s="91"/>
-      <c r="Q12" s="94"/>
+      <c r="A12" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="108"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="109"/>
+      <c r="P12" s="109"/>
+      <c r="Q12" s="112"/>
     </row>
     <row r="13" customHeight="1" spans="2:17">
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="91"/>
-      <c r="P13" s="91"/>
-      <c r="Q13" s="94"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="109"/>
+      <c r="O13" s="109"/>
+      <c r="P13" s="109"/>
+      <c r="Q13" s="112"/>
     </row>
     <row r="14" customHeight="1" spans="2:17">
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="94"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="109"/>
+      <c r="O14" s="109"/>
+      <c r="P14" s="109"/>
+      <c r="Q14" s="112"/>
     </row>
     <row r="15" customHeight="1" spans="2:17">
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="91"/>
-      <c r="P15" s="91"/>
-      <c r="Q15" s="94"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="109"/>
+      <c r="O15" s="109"/>
+      <c r="P15" s="109"/>
+      <c r="Q15" s="112"/>
     </row>
     <row r="16" customHeight="1" spans="2:17">
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="91"/>
-      <c r="P16" s="91"/>
-      <c r="Q16" s="94"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="108"/>
+      <c r="N16" s="109"/>
+      <c r="O16" s="109"/>
+      <c r="P16" s="109"/>
+      <c r="Q16" s="112"/>
     </row>
     <row r="17" customHeight="1" spans="2:17">
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="94"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="108"/>
+      <c r="N17" s="109"/>
+      <c r="O17" s="109"/>
+      <c r="P17" s="109"/>
+      <c r="Q17" s="112"/>
     </row>
     <row r="18" customHeight="1" spans="2:17">
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="91"/>
-      <c r="O18" s="91"/>
-      <c r="P18" s="91"/>
-      <c r="Q18" s="94"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="108"/>
+      <c r="N18" s="109"/>
+      <c r="O18" s="109"/>
+      <c r="P18" s="109"/>
+      <c r="Q18" s="112"/>
     </row>
     <row r="19" customHeight="1" spans="2:17">
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="91"/>
-      <c r="O19" s="91"/>
-      <c r="P19" s="91"/>
-      <c r="Q19" s="94"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="108"/>
+      <c r="N19" s="109"/>
+      <c r="O19" s="109"/>
+      <c r="P19" s="109"/>
+      <c r="Q19" s="112"/>
     </row>
     <row r="20" customHeight="1" spans="2:17">
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="91"/>
-      <c r="O20" s="91"/>
-      <c r="P20" s="91"/>
-      <c r="Q20" s="94"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="109"/>
+      <c r="O20" s="109"/>
+      <c r="P20" s="109"/>
+      <c r="Q20" s="112"/>
     </row>
     <row r="21" customHeight="1" spans="2:17">
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="91"/>
-      <c r="O21" s="91"/>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="94"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="109"/>
+      <c r="O21" s="109"/>
+      <c r="P21" s="109"/>
+      <c r="Q21" s="112"/>
     </row>
     <row r="22" customHeight="1" spans="2:17">
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="91"/>
-      <c r="O22" s="91"/>
-      <c r="P22" s="91"/>
-      <c r="Q22" s="94"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="107"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="108"/>
+      <c r="N22" s="109"/>
+      <c r="O22" s="109"/>
+      <c r="P22" s="109"/>
+      <c r="Q22" s="112"/>
     </row>
     <row r="23" customHeight="1" spans="2:17">
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="91"/>
-      <c r="O23" s="91"/>
-      <c r="P23" s="91"/>
-      <c r="Q23" s="94"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="107"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="108"/>
+      <c r="N23" s="109"/>
+      <c r="O23" s="109"/>
+      <c r="P23" s="109"/>
+      <c r="Q23" s="112"/>
     </row>
     <row r="24" customHeight="1" spans="2:17">
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="91"/>
-      <c r="O24" s="91"/>
-      <c r="P24" s="91"/>
-      <c r="Q24" s="94"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="109"/>
+      <c r="O24" s="109"/>
+      <c r="P24" s="109"/>
+      <c r="Q24" s="112"/>
     </row>
     <row r="25" customHeight="1" spans="2:17">
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="91"/>
-      <c r="Q25" s="94"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="107"/>
+      <c r="M25" s="108"/>
+      <c r="N25" s="109"/>
+      <c r="O25" s="109"/>
+      <c r="P25" s="109"/>
+      <c r="Q25" s="112"/>
     </row>
     <row r="26" customHeight="1" spans="2:17">
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="91"/>
-      <c r="O26" s="91"/>
-      <c r="P26" s="91"/>
-      <c r="Q26" s="94"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="107"/>
+      <c r="L26" s="107"/>
+      <c r="M26" s="108"/>
+      <c r="N26" s="109"/>
+      <c r="O26" s="109"/>
+      <c r="P26" s="109"/>
+      <c r="Q26" s="112"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
@@ -6340,50 +6445,50 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.8571428571429" style="60" customWidth="1"/>
+    <col min="1" max="1" width="16.8571428571429" style="78" customWidth="1"/>
     <col min="2" max="2" width="12.6285714285714" style="1"/>
     <col min="3" max="3" width="10.8571428571429" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.1428571428571" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.6285714285714" style="1"/>
-    <col min="6" max="6" width="19.1428571428571" style="52" customWidth="1"/>
+    <col min="6" max="6" width="19.1428571428571" style="79" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.1428571428571" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1428571428571" style="6"/>
+    <col min="9" max="9" width="26" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1428571428571" style="9"/>
     <col min="11" max="16384" width="12.6285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="90" t="s">
         <v>55</v>
       </c>
       <c r="J1" s="71" t="s">
@@ -6391,313 +6496,312 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
-      <c r="A2" s="64" t="str">
+      <c r="A2" s="82" t="str">
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="66">
+      <c r="E2" s="85">
         <v>21243</v>
       </c>
-      <c r="F2" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="111" t="s">
+      <c r="F2" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="111" t="s">
+      <c r="G2" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="69"/>
-      <c r="J2" s="72"/>
+      <c r="H2" s="128" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="89"/>
+      <c r="J2" s="91"/>
     </row>
     <row r="3" customHeight="1" spans="1:10">
-      <c r="A3" s="64" t="str">
+      <c r="A3" s="82" t="str">
         <f t="shared" ref="A3:A11" si="0">_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="66">
+      <c r="E3" s="85">
         <v>21243</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="111" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="111" t="s">
+      <c r="G3" s="128" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="69"/>
-      <c r="J3" s="73"/>
+      <c r="H3" s="128" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="89"/>
+      <c r="J3" s="92"/>
     </row>
     <row r="4" customHeight="1" spans="1:10">
-      <c r="A4" s="64" t="str">
+      <c r="A4" s="82" t="str">
         <f t="shared" si="0"/>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="66">
+      <c r="E4" s="85">
         <v>212435</v>
       </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="111" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="111" t="s">
+      <c r="F4" s="86"/>
+      <c r="G4" s="128" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="69"/>
-      <c r="J4" s="73"/>
+      <c r="H4" s="128" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="89"/>
+      <c r="J4" s="92"/>
     </row>
     <row r="5" customHeight="1" spans="1:10">
-      <c r="A5" s="64" t="str">
+      <c r="A5" s="82" t="str">
         <f t="shared" si="0"/>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="66">
+      <c r="E5" s="85">
         <v>21246</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="111" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="111" t="s">
+      <c r="G5" s="128" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="69"/>
-      <c r="J5" s="73"/>
+      <c r="H5" s="128" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="89"/>
+      <c r="J5" s="92"/>
     </row>
     <row r="6" customHeight="1" spans="1:10">
-      <c r="A6" s="64" t="str">
+      <c r="A6" s="82" t="str">
         <f t="shared" si="0"/>
         <v>TC_002TD_01</v>
       </c>
-      <c r="B6" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="49" t="s">
+      <c r="B6" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="66">
-        <v>21243</v>
-      </c>
-      <c r="F6" s="68"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69">
-        <v>11111</v>
-      </c>
-      <c r="J6" s="72"/>
+      <c r="D6" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="88">
+        <v>11779</v>
+      </c>
+      <c r="F6" s="87"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="91"/>
     </row>
     <row r="7" customHeight="1" spans="1:10">
-      <c r="A7" s="64" t="str">
+      <c r="A7" s="82" t="str">
         <f t="shared" si="0"/>
         <v>TC_003TD_02</v>
       </c>
-      <c r="B7" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="49" t="s">
+      <c r="B7" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="72">
+      <c r="D7" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="89"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="91">
         <v>1667789656789</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="60" t="str">
+      <c r="A8" s="78" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:1">
-      <c r="A9" s="60" t="str">
+      <c r="A9" s="78" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:1">
-      <c r="A10" s="60" t="str">
+      <c r="A10" s="78" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:1">
-      <c r="A12" s="60" t="str">
+      <c r="A12" s="78" t="str">
         <f t="shared" ref="A12:A32" si="1">_xlfn.CONCAT(B12:C12)</f>
         <v/>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:1">
-      <c r="A13" s="60" t="str">
+      <c r="A13" s="78" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:1">
-      <c r="A14" s="60" t="str">
+      <c r="A14" s="78" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:1">
-      <c r="A15" s="60" t="str">
+      <c r="A15" s="78" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:1">
-      <c r="A16" s="60" t="str">
+      <c r="A16" s="78" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:1">
-      <c r="A17" s="60" t="str">
+      <c r="A17" s="78" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:1">
-      <c r="A18" s="60" t="str">
+      <c r="A18" s="78" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:1">
-      <c r="A19" s="60" t="str">
+      <c r="A19" s="78" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:1">
-      <c r="A20" s="60" t="str">
+      <c r="A20" s="78" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:1">
-      <c r="A21" s="60" t="str">
+      <c r="A21" s="78" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:1">
-      <c r="A22" s="60" t="str">
+      <c r="A22" s="78" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:1">
-      <c r="A23" s="60" t="str">
+      <c r="A23" s="78" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:1">
-      <c r="A24" s="60" t="str">
+      <c r="A24" s="78" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:1">
-      <c r="A25" s="60" t="str">
+      <c r="A25" s="78" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:1">
-      <c r="A26" s="60" t="str">
+      <c r="A26" s="78" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:1">
-      <c r="A27" s="60" t="str">
+      <c r="A27" s="78" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:1">
-      <c r="A28" s="60" t="str">
+      <c r="A28" s="78" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:1">
-      <c r="A29" s="60" t="str">
+      <c r="A29" s="78" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:1">
-      <c r="A30" s="60" t="str">
+      <c r="A30" s="78" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:1">
-      <c r="A31" s="60" t="str">
+      <c r="A31" s="78" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:1">
-      <c r="A32" s="60" t="str">
+      <c r="A32" s="78" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CC65" sheet="1" objects="1"/>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
@@ -6705,7 +6809,7 @@
     <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="email@gmail.com"/>
+    <hyperlink ref="F2" r:id="rId1" display="email12@gmail.com" tooltip="mailto:email12@gmail.com"/>
     <hyperlink ref="F3" r:id="rId2" display="email44@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6720,8 +6824,8 @@
   </sheetPr>
   <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -6739,71 +6843,71 @@
     <col min="12" max="12" width="19.1428571428571" style="1" customWidth="1"/>
     <col min="13" max="13" width="18" style="1" customWidth="1"/>
     <col min="14" max="14" width="24.8571428571429" style="1" customWidth="1"/>
-    <col min="15" max="15" width="27.1428571428571" style="6" customWidth="1"/>
+    <col min="15" max="15" width="27.1428571428571" style="9" customWidth="1"/>
     <col min="16" max="16" width="24.1428571428571" style="1" customWidth="1"/>
     <col min="17" max="16384" width="12.6285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:20">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="15" t="s">
+      <c r="F1" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="57" t="s">
+      <c r="H1" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="I1" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="J1" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="K1" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="L1" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="M1" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="N1" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="O1" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="P1" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="Q1" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="R1" s="72" t="s">
         <v>83</v>
+      </c>
+      <c r="S1" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="T1" s="72" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:20">
@@ -6811,62 +6915,62 @@
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="54" t="s">
+      <c r="D2" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="55" t="s">
+      <c r="F2" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="112" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="K2" s="58" t="s">
+      <c r="H2" s="129" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="L2" s="58" t="s">
+      <c r="J2" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="M2" s="53" t="s">
+      <c r="K2" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="58" t="s">
+      <c r="L2" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="59">
+      <c r="M2" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="O2" s="77">
         <v>1.1312423423434e+17</v>
       </c>
-      <c r="P2" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q2" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="R2" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="S2" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="T2" s="53" t="s">
-        <v>92</v>
+      <c r="P2" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q2" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="R2" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="S2" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="T2" s="76" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:20">
@@ -6874,60 +6978,60 @@
         <f>_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="54" t="s">
+      <c r="D3" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="129" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="L3" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="M3" s="76"/>
+      <c r="N3" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="O3" s="77">
+        <v>1.1312423423434e+17</v>
+      </c>
+      <c r="P3" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="H3" s="112" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="J3" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="K3" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="L3" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="M3" s="53"/>
-      <c r="N3" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="O3" s="59">
-        <v>1.1312423423434e+17</v>
-      </c>
-      <c r="P3" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q3" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="R3" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="S3" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="T3" s="53" t="s">
-        <v>98</v>
+      <c r="Q3" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="R3" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="S3" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="T3" s="76" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:20">
@@ -6935,75 +7039,76 @@
         <f>_xlfn.CONCAT(B4:C4)</f>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="54" t="s">
+      <c r="D4" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="129" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="112" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="J4" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="K4" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="L4" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="M4" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="N4" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="O4" s="59">
+      <c r="L4" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="M4" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="N4" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="O4" s="77">
         <v>1.1312423423434e+17</v>
       </c>
-      <c r="P4" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q4" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="R4" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="S4" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="T4" s="53" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:3">
+      <c r="P4" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="R4" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="S4" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="T4" s="76" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="1" t="str">
         <f t="shared" ref="A5:A12" si="0">_xlfn.CONCAT(B5:C5)</f>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="63" t="s">
         <v>36</v>
       </c>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" customHeight="1" spans="1:1">
       <c r="A6" s="1" t="str">
@@ -7288,7 +7393,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CC65" sheet="1" objects="1"/>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
@@ -7319,35 +7423,35 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="4" width="12.6285714285714" style="1"/>
-    <col min="5" max="5" width="18.5714285714286" style="6" customWidth="1"/>
+    <col min="5" max="5" width="18.5714285714286" style="9" customWidth="1"/>
     <col min="6" max="6" width="15.247619047619" style="1" customWidth="1"/>
     <col min="7" max="16384" width="12.6285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>101</v>
+      <c r="F1" s="21" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
@@ -7355,20 +7459,20 @@
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="51">
+      <c r="D2" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="65">
         <v>251311000009</v>
       </c>
-      <c r="F2" s="52" t="s">
-        <v>103</v>
+      <c r="F2" s="66" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
@@ -7376,20 +7480,20 @@
         <f t="shared" ref="A3:A9" si="0">_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="51">
+      <c r="D3" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="65">
         <v>251311000009</v>
       </c>
-      <c r="F3" s="52" t="s">
-        <v>104</v>
+      <c r="F3" s="66" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
@@ -7397,20 +7501,20 @@
         <f t="shared" si="0"/>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="51">
+      <c r="D4" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="65">
         <v>251311000011</v>
       </c>
-      <c r="F4" s="52" t="s">
-        <v>105</v>
+      <c r="F4" s="66" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
@@ -7418,20 +7522,20 @@
         <f t="shared" si="0"/>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="51">
+      <c r="D5" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="65">
         <v>251311000012</v>
       </c>
-      <c r="F5" s="52" t="s">
-        <v>106</v>
+      <c r="F5" s="66" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
@@ -7801,7 +7905,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CC65" sheet="1" objects="1"/>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
@@ -7821,43 +7924,43 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="5" max="5" width="14" style="38"/>
+    <col min="5" max="5" width="18" style="50" customWidth="1"/>
     <col min="7" max="7" width="20.1333333333333" customWidth="1"/>
     <col min="8" max="8" width="17.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="G1" s="54" t="s">
         <v>109</v>
+      </c>
+      <c r="H1" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="61" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:9">
@@ -7865,29 +7968,29 @@
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="113" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" s="46" t="s">
+      <c r="D2" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="E2" s="130" t="s">
         <v>113</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="F2" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="I2" t="s">
-        <v>92</v>
+      <c r="G2" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="60" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:9">
@@ -7895,91 +7998,95 @@
         <f t="shared" ref="A3:A11" si="0">_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="113" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" s="46" t="s">
+      <c r="D3" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="130" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="59"/>
+      <c r="I3" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="H3" s="47"/>
-      <c r="I3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:8">
+    </row>
+    <row r="4" customHeight="1" spans="1:9">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" s="113" t="s">
-        <v>118</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="G4" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="H4" s="47"/>
+      <c r="D4" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="130" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="59"/>
+      <c r="I4" s="60"/>
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" s="113" t="s">
-        <v>122</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="G5" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="H5" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="I5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:8">
+      <c r="D5" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="130" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" s="60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:9">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H6" s="47" t="s">
-        <v>124</v>
-      </c>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="I6" s="60"/>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" t="str">
@@ -8057,23 +8164,26 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD100"/>
+  <dimension ref="A1:AE100"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="12.6285714285714" style="1"/>
     <col min="4" max="4" width="17.1428571428571" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="6"/>
+    <col min="5" max="5" width="18.1428571428571" style="9" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="12.6285714285714" style="1"/>
+    <col min="7" max="7" width="12.6285714285714" style="1"/>
+    <col min="8" max="8" width="9.71428571428571" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7142857142857" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="12.6285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:30">
-      <c r="A1" s="11" t="s">
+    <row r="1" customHeight="1" spans="1:31">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -8082,626 +8192,698 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="D1" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="E1" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="F1" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="G1" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="H1" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="I1" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="J1" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="K1" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="L1" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="M1" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="R1" s="7" t="s">
+      <c r="N1" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="O1" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="P1" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="R1" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="S1" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="U1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="V1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="W1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="29" t="s">
+      <c r="X1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="X1" s="29" t="s">
+      <c r="Y1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="29" t="s">
+      <c r="Z1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="Z1" s="29" t="s">
+      <c r="AA1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="29" t="s">
+      <c r="AB1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:30">
+      <c r="AC1" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:31">
       <c r="A2" s="1" t="str">
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="D2" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="G2" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="H2" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="I2" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="J2" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="P2" s="5" t="s">
+      <c r="K2" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="L2" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="R2" s="30">
+      <c r="M2" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="R2" s="42">
         <v>7877997701</v>
       </c>
-      <c r="S2" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="T2" s="31" t="s">
+      <c r="S2" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="U2" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="U2" s="31" t="s">
+      <c r="V2" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="32" t="s">
+      <c r="W2" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="X2" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y2" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z2" s="35">
+      <c r="X2" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y2" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z2" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA2" s="47">
         <v>33333</v>
       </c>
-      <c r="AA2" s="36">
+      <c r="AB2" s="48">
         <v>33333</v>
       </c>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:30">
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:31">
       <c r="A3" s="1" t="str">
         <f t="shared" ref="A3:A13" si="0">_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="114" t="s">
-        <v>158</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="D3" s="131" t="s">
         <v>162</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="M3" s="5" t="s">
+      <c r="E3" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="P3" s="5" t="s">
+      <c r="F3" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="Q3" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="R3" s="30">
+      <c r="I3" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="R3" s="42">
         <v>7877997701</v>
       </c>
-      <c r="S3" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="T3" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="U3" s="31" t="s">
+      <c r="S3" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="U3" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="V3" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="W3" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="X3" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z3" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA3" s="47">
+        <v>4444</v>
+      </c>
+      <c r="AB3" s="49">
+        <v>4444</v>
+      </c>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:31">
+      <c r="A4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TC_001TD_03</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="132" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="V3" s="32" t="s">
+      <c r="N4" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="R4" s="42">
+        <v>7877997701</v>
+      </c>
+      <c r="S4" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="U4" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="V4" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="W4" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="W3" s="33" t="s">
+      <c r="X4" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="X3" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y3" s="33" t="s">
+      <c r="Y4" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z4" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA4" s="47">
+        <v>4444</v>
+      </c>
+      <c r="AB4" s="49">
+        <v>4444</v>
+      </c>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:31">
+      <c r="A5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TC_001TD_04</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="M5" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="N5" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="R5" s="42">
+        <v>7877997701</v>
+      </c>
+      <c r="S5" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="T5" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="Z3" s="35">
+      <c r="U5" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="V5" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="W5" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="X5" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y5" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z5" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA5" s="47">
         <v>4444</v>
       </c>
-      <c r="AA3" s="37">
+      <c r="AB5" s="49">
         <v>4444</v>
       </c>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25"/>
-      <c r="AD3" s="25"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:30">
-      <c r="A4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>TC_001TD_03</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="115" t="s">
-        <v>158</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="R4" s="30">
-        <v>7877997701</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="T4" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="U4" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="V4" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="W4" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="X4" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y4" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z4" s="35">
-        <v>4444</v>
-      </c>
-      <c r="AA4" s="37">
-        <v>4444</v>
-      </c>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:30">
-      <c r="A5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="25"/>
-      <c r="AD5" s="25"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:30">
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:31">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
-      <c r="AC6" s="25"/>
-      <c r="AD6" s="25"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:30">
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="36"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:31">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="25"/>
-      <c r="AD7" s="25"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:30">
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="36"/>
+      <c r="AC7" s="36"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="36"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:31">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="25"/>
-      <c r="AC8" s="25"/>
-      <c r="AD8" s="25"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:30">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="36"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:31">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:30">
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="36"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:31">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="25"/>
-      <c r="AC10" s="25"/>
-      <c r="AD10" s="25"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:30">
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="36"/>
+      <c r="AB10" s="36"/>
+      <c r="AC10" s="36"/>
+      <c r="AD10" s="36"/>
+      <c r="AE10" s="36"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:31">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="25"/>
-      <c r="AC11" s="25"/>
-      <c r="AD11" s="25"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:30">
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="36"/>
+      <c r="AC11" s="36"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="36"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:31">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="25"/>
-      <c r="AB12" s="25"/>
-      <c r="AC12" s="25"/>
-      <c r="AD12" s="25"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="36"/>
+      <c r="AC12" s="36"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="36"/>
     </row>
     <row r="13" customHeight="1" spans="1:1">
       <c r="A13" s="1" t="str">
@@ -9232,7 +9414,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CC65" sheet="1" objects="1"/>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
@@ -9250,7 +9431,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="5"/>
@@ -9265,23 +9446,23 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:6">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>178</v>
+      <c r="F1" s="30" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:6">
@@ -9289,20 +9470,20 @@
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E2" s="22">
+      <c r="D2" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="31">
         <v>251311000009</v>
       </c>
-      <c r="F2" s="23" t="s">
-        <v>180</v>
+      <c r="F2" s="32" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:6">
@@ -9310,20 +9491,20 @@
         <f t="shared" ref="A3:A35" si="0">_xlfn.CONCAT(B3:C3)</f>
         <v>TC_002TD_02</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E3" s="22">
+      <c r="D3" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="31">
         <v>251311000009</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>181</v>
+      <c r="F3" s="17" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -9909,7 +10090,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CC65" sheet="1" objects="1"/>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
